--- a/TARS.xlsx
+++ b/TARS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB52FC3-3E8B-4658-BDBB-D7AE75A5D5C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0D084D-1A83-48B6-A517-75654ECF3CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28620" yWindow="600" windowWidth="27675" windowHeight="19530" xr2:uid="{A78D39FC-A144-4ED2-83F9-E1606067542F}"/>
+    <workbookView xWindow="-30000" yWindow="1830" windowWidth="25155" windowHeight="19005" activeTab="1" xr2:uid="{A78D39FC-A144-4ED2-83F9-E1606067542F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -369,7 +369,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -386,12 +386,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -438,14 +437,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>604156</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>27213</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>604156</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>27213</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -462,8 +461,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5192485" y="0"/>
-          <a:ext cx="0" cy="6242957"/>
+          <a:off x="6444342" y="0"/>
+          <a:ext cx="0" cy="6732814"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -858,8 +857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FF81DF0-2EE8-4720-AFD4-9D099EA9A3C1}">
   <dimension ref="B2:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -886,22 +885,20 @@
         <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>25.93</v>
+        <v>48.6</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14">
         <v>45131</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11"/>
+      <c r="G3" s="10"/>
       <c r="I3" t="s">
         <v>1</v>
       </c>
@@ -924,20 +921,17 @@
       </c>
       <c r="J4" s="2">
         <f>+J2*J3</f>
-        <v>979.67929948999995</v>
+        <v>1836.1902797999999</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11"/>
+      <c r="G5" s="10"/>
       <c r="I5" t="s">
         <v>3</v>
       </c>
@@ -950,16 +944,16 @@
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="13"/>
       <c r="I6" t="s">
         <v>4</v>
       </c>
@@ -976,7 +970,7 @@
       </c>
       <c r="J7" s="2">
         <f>+J4-J5+J6</f>
-        <v>711.08829948999994</v>
+        <v>1567.5992797999997</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
@@ -1007,11 +1001,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C4CC2C-021D-4F80-96F6-D85DE8C5C4B9}">
   <dimension ref="A1:AP26"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V26" sqref="V26"/>
+      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1023,7 +1017,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1068,39 +1062,39 @@
         <v>2022</v>
       </c>
       <c r="R2">
-        <f>+Q2+1</f>
+        <f t="shared" ref="R2:Z2" si="0">+Q2+1</f>
         <v>2023</v>
       </c>
       <c r="S2">
-        <f>+R2+1</f>
+        <f t="shared" si="0"/>
         <v>2024</v>
       </c>
       <c r="T2">
-        <f>+S2+1</f>
+        <f t="shared" si="0"/>
         <v>2025</v>
       </c>
       <c r="U2">
-        <f>+T2+1</f>
+        <f t="shared" si="0"/>
         <v>2026</v>
       </c>
       <c r="V2">
-        <f>+U2+1</f>
+        <f t="shared" si="0"/>
         <v>2027</v>
       </c>
       <c r="W2">
-        <f>+V2+1</f>
+        <f t="shared" si="0"/>
         <v>2028</v>
       </c>
       <c r="X2">
-        <f>+W2+1</f>
+        <f t="shared" si="0"/>
         <v>2029</v>
       </c>
       <c r="Y2">
-        <f>+X2+1</f>
+        <f t="shared" si="0"/>
         <v>2030</v>
       </c>
       <c r="Z2">
-        <f>+Y2+1</f>
+        <f t="shared" si="0"/>
         <v>2031</v>
       </c>
     </row>
@@ -1121,34 +1115,34 @@
         <v>37</v>
       </c>
       <c r="I3" s="4">
-        <f>+H3+10</f>
+        <f t="shared" ref="I3:N3" si="1">+H3+10</f>
         <v>47</v>
       </c>
       <c r="J3" s="4">
-        <f>+I3+10</f>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="K3" s="4">
-        <f>+J3+10</f>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="L3" s="4">
-        <f>+K3+10</f>
+        <f t="shared" si="1"/>
         <v>77</v>
       </c>
       <c r="M3" s="4">
-        <f>+L3+10</f>
+        <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="N3" s="4">
-        <f>+M3+10</f>
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="S3" s="23">
+      <c r="S3" s="22">
         <f>SUM(G3:J3)</f>
         <v>167</v>
       </c>
-      <c r="T3" s="23">
+      <c r="T3" s="22">
         <f>SUM(K3:N3)</f>
         <v>328</v>
       </c>
@@ -1157,44 +1151,44 @@
       <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="20">
-        <f t="shared" ref="E4" si="0">+E6*1000/E3</f>
+      <c r="E4" s="19">
+        <f t="shared" ref="E4" si="2">+E6*1000/E3</f>
         <v>1000</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="19">
         <f>+F6*1000/F3</f>
         <v>752.87356321839081</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="19">
         <f>+G6*1000/G3</f>
         <v>950.76923076923072</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="19">
         <f>+H6*1000/H3</f>
         <v>1102.7027027027027</v>
       </c>
-      <c r="I4" s="20">
-        <f>+H4</f>
+      <c r="I4" s="19">
+        <f t="shared" ref="I4:N4" si="3">+H4</f>
         <v>1102.7027027027027</v>
       </c>
-      <c r="J4" s="20">
-        <f>+I4</f>
+      <c r="J4" s="19">
+        <f t="shared" si="3"/>
         <v>1102.7027027027027</v>
       </c>
-      <c r="K4" s="20">
-        <f>+J4</f>
+      <c r="K4" s="19">
+        <f t="shared" si="3"/>
         <v>1102.7027027027027</v>
       </c>
-      <c r="L4" s="20">
-        <f>+K4</f>
+      <c r="L4" s="19">
+        <f t="shared" si="3"/>
         <v>1102.7027027027027</v>
       </c>
-      <c r="M4" s="20">
-        <f>+L4</f>
+      <c r="M4" s="19">
+        <f t="shared" si="3"/>
         <v>1102.7027027027027</v>
       </c>
-      <c r="N4" s="20">
-        <f>+M4</f>
+      <c r="N4" s="19">
+        <f t="shared" si="3"/>
         <v>1102.7027027027027</v>
       </c>
     </row>
@@ -1232,77 +1226,76 @@
         <v>2.8940000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:26" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="17" t="s">
+    <row r="8" spans="1:26" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="19">
-        <f t="shared" ref="E8" si="1">+E6+E7</f>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18">
+        <f t="shared" ref="E8" si="4">+E6+E7</f>
         <v>1.9179999999999999</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="18">
         <f>+F6+F7</f>
         <v>13.1</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="18">
         <f>+G6+G7</f>
         <v>27.613999999999997</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="18">
         <f>+H6+H7</f>
         <v>40.799999999999997</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="18">
         <f>+I4*I3/1000</f>
         <v>51.827027027027029</v>
       </c>
-      <c r="J8" s="19">
-        <f t="shared" ref="J8:N8" si="2">+J4*J3/1000</f>
-        <v>62.854054054054053</v>
-      </c>
-      <c r="K8" s="19">
-        <f t="shared" si="2"/>
+      <c r="J8" s="18">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="K8" s="18">
+        <f t="shared" ref="J8:N8" si="5">+K4*K3/1000</f>
         <v>73.881081081081078</v>
       </c>
-      <c r="L8" s="19">
-        <f t="shared" si="2"/>
+      <c r="L8" s="18">
+        <f t="shared" si="5"/>
         <v>84.908108108108109</v>
       </c>
-      <c r="M8" s="19">
-        <f t="shared" si="2"/>
+      <c r="M8" s="18">
+        <f t="shared" si="5"/>
         <v>95.935135135135127</v>
       </c>
-      <c r="N8" s="19">
-        <f t="shared" si="2"/>
+      <c r="N8" s="18">
+        <f t="shared" si="5"/>
         <v>106.96216216216216</v>
       </c>
-      <c r="S8" s="24">
+      <c r="S8" s="23">
         <f>SUM(G8:J8)</f>
-        <v>183.09508108108108</v>
-      </c>
-      <c r="T8" s="24">
+        <v>186.64102702702701</v>
+      </c>
+      <c r="T8" s="23">
         <f>SUM(K8:N8)</f>
         <v>361.68648648648644</v>
       </c>
-      <c r="U8" s="24">
+      <c r="U8" s="23">
         <f>+T8*1.3</f>
         <v>470.19243243243238</v>
       </c>
-      <c r="V8" s="24">
+      <c r="V8" s="23">
         <f>+U8*1.3</f>
         <v>611.25016216216216</v>
       </c>
-      <c r="W8" s="24">
+      <c r="W8" s="23">
         <f>+V8*1.3</f>
         <v>794.62521081081081</v>
       </c>
-      <c r="X8" s="24">
+      <c r="X8" s="23">
         <f>+W8*1.3</f>
         <v>1033.012774054054</v>
       </c>
-      <c r="Y8" s="24">
+      <c r="Y8" s="23">
         <f>+X8*1.2</f>
         <v>1239.6153288648648</v>
       </c>
@@ -1328,51 +1321,50 @@
         <v>3.6278918918918919</v>
       </c>
       <c r="J9" s="4">
-        <f t="shared" ref="J9:N9" si="3">+J8-J10</f>
-        <v>4.3997837837837821</v>
+        <v>4.9260000000000002</v>
       </c>
       <c r="K9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="J9:N9" si="6">+K8-K10</f>
         <v>5.1716756756756723</v>
       </c>
       <c r="L9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.9435675675675697</v>
       </c>
       <c r="M9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6.7154594594594528</v>
       </c>
       <c r="N9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7.4873513513513501</v>
       </c>
-      <c r="S9" s="23">
+      <c r="S9" s="22">
         <f>SUM(G9:J9)</f>
-        <v>12.685675675675673</v>
-      </c>
-      <c r="T9" s="23">
+        <v>13.211891891891892</v>
+      </c>
+      <c r="T9" s="22">
         <f>SUM(K9:N9)</f>
         <v>25.318054054054045</v>
       </c>
-      <c r="U9" s="23">
+      <c r="U9" s="22">
         <f>+U8-U10</f>
         <v>32.913470270270238</v>
       </c>
-      <c r="V9" s="23">
-        <f t="shared" ref="V9:Y9" si="4">+V8-V10</f>
+      <c r="V9" s="22">
+        <f t="shared" ref="V9:Y9" si="7">+V8-V10</f>
         <v>42.787511351351327</v>
       </c>
-      <c r="W9" s="23">
-        <f t="shared" si="4"/>
+      <c r="W9" s="22">
+        <f t="shared" si="7"/>
         <v>55.623764756756714</v>
       </c>
-      <c r="X9" s="23">
-        <f t="shared" si="4"/>
+      <c r="X9" s="22">
+        <f t="shared" si="7"/>
         <v>72.310894183783716</v>
       </c>
-      <c r="Y9" s="23">
-        <f t="shared" si="4"/>
+      <c r="Y9" s="22">
+        <f t="shared" si="7"/>
         <v>86.773073020540551</v>
       </c>
     </row>
@@ -1381,7 +1373,7 @@
         <v>23</v>
       </c>
       <c r="E10" s="4">
-        <f t="shared" ref="E10" si="5">+E8-E9</f>
+        <f t="shared" ref="E10" si="8">+E8-E9</f>
         <v>1.5409999999999999</v>
       </c>
       <c r="F10" s="4">
@@ -1401,51 +1393,51 @@
         <v>48.199135135135137</v>
       </c>
       <c r="J10" s="4">
-        <f t="shared" ref="J10:N10" si="6">+J8*0.93</f>
-        <v>58.454270270270271</v>
+        <f>+J8-J9</f>
+        <v>61.474000000000004</v>
       </c>
       <c r="K10" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="J10:N10" si="9">+K8*0.93</f>
         <v>68.709405405405406</v>
       </c>
       <c r="L10" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>78.96454054054054</v>
       </c>
       <c r="M10" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>89.219675675675674</v>
       </c>
       <c r="N10" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>99.474810810810808</v>
       </c>
-      <c r="S10" s="23">
+      <c r="S10" s="22">
         <f>+S8-S9</f>
-        <v>170.40940540540541</v>
-      </c>
-      <c r="T10" s="23">
+        <v>173.42913513513511</v>
+      </c>
+      <c r="T10" s="22">
         <f>+T8-T9</f>
         <v>336.36843243243243</v>
       </c>
-      <c r="U10" s="23">
+      <c r="U10" s="22">
         <f>+U8*0.93</f>
         <v>437.27896216216214</v>
       </c>
-      <c r="V10" s="23">
-        <f t="shared" ref="V10:Y10" si="7">+V8*0.93</f>
+      <c r="V10" s="22">
+        <f t="shared" ref="V10:Y10" si="10">+V8*0.93</f>
         <v>568.46265081081083</v>
       </c>
-      <c r="W10" s="23">
-        <f t="shared" si="7"/>
+      <c r="W10" s="22">
+        <f t="shared" si="10"/>
         <v>739.0014460540541</v>
       </c>
-      <c r="X10" s="23">
-        <f t="shared" si="7"/>
+      <c r="X10" s="22">
+        <f t="shared" si="10"/>
         <v>960.70187987027032</v>
       </c>
-      <c r="Y10" s="23">
-        <f t="shared" si="7"/>
+      <c r="Y10" s="22">
+        <f t="shared" si="10"/>
         <v>1152.8422558443242</v>
       </c>
     </row>
@@ -1465,11 +1457,14 @@
       <c r="H11" s="4">
         <v>12.319000000000001</v>
       </c>
-      <c r="S11" s="23">
-        <f t="shared" ref="S11:S12" si="8">SUM(G11:J11)</f>
-        <v>24.385000000000002</v>
-      </c>
-      <c r="T11" s="23">
+      <c r="J11" s="4">
+        <v>16.873000000000001</v>
+      </c>
+      <c r="S11" s="22">
+        <f t="shared" ref="S11:S12" si="11">SUM(G11:J11)</f>
+        <v>41.258000000000003</v>
+      </c>
+      <c r="T11" s="22">
         <f>SUM(K11:N11)</f>
         <v>0</v>
       </c>
@@ -1490,55 +1485,54 @@
       <c r="H12" s="4">
         <v>58.792000000000002</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I12" s="21">
         <f>+I10*0.3</f>
         <v>14.45974054054054</v>
       </c>
-      <c r="J12" s="22">
-        <f t="shared" ref="J12:N12" si="9">+J10*0.3</f>
-        <v>17.536281081081082</v>
-      </c>
-      <c r="K12" s="22">
-        <f t="shared" si="9"/>
+      <c r="J12" s="21">
+        <v>69.03</v>
+      </c>
+      <c r="K12" s="21">
+        <f t="shared" ref="J12:N12" si="12">+K10*0.3</f>
         <v>20.61282162162162</v>
       </c>
-      <c r="L12" s="22">
-        <f t="shared" si="9"/>
+      <c r="L12" s="21">
+        <f t="shared" si="12"/>
         <v>23.689362162162162</v>
       </c>
-      <c r="M12" s="22">
-        <f t="shared" si="9"/>
+      <c r="M12" s="21">
+        <f t="shared" si="12"/>
         <v>26.7659027027027</v>
       </c>
-      <c r="N12" s="22">
-        <f t="shared" si="9"/>
+      <c r="N12" s="21">
+        <f t="shared" si="12"/>
         <v>29.842443243243242</v>
       </c>
-      <c r="S12" s="23">
-        <f t="shared" si="8"/>
-        <v>142.36602162162163</v>
-      </c>
-      <c r="T12" s="23">
+      <c r="S12" s="22">
+        <f t="shared" si="11"/>
+        <v>193.85974054054054</v>
+      </c>
+      <c r="T12" s="22">
         <f>SUM(K12:N12)</f>
         <v>100.91052972972972</v>
       </c>
-      <c r="U12" s="23">
+      <c r="U12" s="22">
         <f>+U8*0.3</f>
         <v>141.05772972972972</v>
       </c>
-      <c r="V12" s="23">
+      <c r="V12" s="22">
         <f>+V8*0.25</f>
         <v>152.81254054054054</v>
       </c>
-      <c r="W12" s="23">
+      <c r="W12" s="22">
         <f>+W8*0.2</f>
         <v>158.92504216216219</v>
       </c>
-      <c r="X12" s="23">
+      <c r="X12" s="22">
         <f>+X8*0.15</f>
         <v>154.95191610810809</v>
       </c>
-      <c r="Y12" s="23">
+      <c r="Y12" s="22">
         <f>+Y8*0.1</f>
         <v>123.96153288648648</v>
       </c>
@@ -1548,7 +1542,7 @@
         <v>20</v>
       </c>
       <c r="E13" s="4">
-        <f t="shared" ref="E13" si="10">+E12+E11</f>
+        <f t="shared" ref="E13" si="13">+E12+E11</f>
         <v>42.429000000000002</v>
       </c>
       <c r="F13" s="4">
@@ -1564,55 +1558,55 @@
         <v>71.111000000000004</v>
       </c>
       <c r="I13" s="4">
-        <f t="shared" ref="I13:N13" si="11">+I12+I11</f>
+        <f t="shared" ref="I13:N13" si="14">+I12+I11</f>
         <v>14.45974054054054</v>
       </c>
       <c r="J13" s="4">
-        <f t="shared" si="11"/>
-        <v>17.536281081081082</v>
+        <f>+J12+J11</f>
+        <v>85.903000000000006</v>
       </c>
       <c r="K13" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>20.61282162162162</v>
       </c>
       <c r="L13" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>23.689362162162162</v>
       </c>
       <c r="M13" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>26.7659027027027</v>
       </c>
       <c r="N13" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>29.842443243243242</v>
       </c>
-      <c r="S13" s="23">
-        <f t="shared" ref="S13" si="12">+S12+S11</f>
-        <v>166.75102162162162</v>
-      </c>
-      <c r="T13" s="23">
+      <c r="S13" s="22">
+        <f t="shared" ref="S13" si="15">+S12+S11</f>
+        <v>235.11774054054055</v>
+      </c>
+      <c r="T13" s="22">
         <f>+T12+T11</f>
         <v>100.91052972972972</v>
       </c>
-      <c r="U13" s="23">
-        <f t="shared" ref="U13:Y13" si="13">+U12+U11</f>
+      <c r="U13" s="22">
+        <f t="shared" ref="U13:Y13" si="16">+U12+U11</f>
         <v>141.05772972972972</v>
       </c>
-      <c r="V13" s="23">
-        <f t="shared" si="13"/>
+      <c r="V13" s="22">
+        <f t="shared" si="16"/>
         <v>152.81254054054054</v>
       </c>
-      <c r="W13" s="23">
-        <f t="shared" si="13"/>
+      <c r="W13" s="22">
+        <f t="shared" si="16"/>
         <v>158.92504216216219</v>
       </c>
-      <c r="X13" s="23">
-        <f t="shared" si="13"/>
+      <c r="X13" s="22">
+        <f t="shared" si="16"/>
         <v>154.95191610810809</v>
       </c>
-      <c r="Y13" s="23">
-        <f t="shared" si="13"/>
+      <c r="Y13" s="22">
+        <f t="shared" si="16"/>
         <v>123.96153288648648</v>
       </c>
     </row>
@@ -1621,7 +1615,7 @@
         <v>21</v>
       </c>
       <c r="E14" s="4">
-        <f t="shared" ref="E14" si="14">+E10-E13</f>
+        <f t="shared" ref="E14" si="17">+E10-E13</f>
         <v>-40.888000000000005</v>
       </c>
       <c r="F14" s="4">
@@ -1637,55 +1631,55 @@
         <v>-33.315000000000005</v>
       </c>
       <c r="I14" s="4">
-        <f t="shared" ref="I14:N14" si="15">+I10-I13</f>
+        <f t="shared" ref="I14:N14" si="18">+I10-I13</f>
         <v>33.7393945945946</v>
       </c>
       <c r="J14" s="4">
-        <f t="shared" si="15"/>
-        <v>40.917989189189186</v>
+        <f>+J10-J13</f>
+        <v>-24.429000000000002</v>
       </c>
       <c r="K14" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>48.096583783783785</v>
       </c>
       <c r="L14" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>55.275178378378378</v>
       </c>
       <c r="M14" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>62.45377297297297</v>
       </c>
       <c r="N14" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>69.63236756756757</v>
       </c>
-      <c r="S14" s="23">
-        <f t="shared" ref="S14" si="16">+S10-S13</f>
-        <v>3.6583837837837905</v>
-      </c>
-      <c r="T14" s="23">
+      <c r="S14" s="22">
+        <f t="shared" ref="S14" si="19">+S10-S13</f>
+        <v>-61.68860540540544</v>
+      </c>
+      <c r="T14" s="22">
         <f>+T10-T13</f>
         <v>235.45790270270271</v>
       </c>
-      <c r="U14" s="23">
-        <f t="shared" ref="U14:Y14" si="17">+U10-U13</f>
+      <c r="U14" s="22">
+        <f t="shared" ref="U14:Y14" si="20">+U10-U13</f>
         <v>296.22123243243243</v>
       </c>
-      <c r="V14" s="23">
-        <f t="shared" si="17"/>
+      <c r="V14" s="22">
+        <f t="shared" si="20"/>
         <v>415.65011027027026</v>
       </c>
-      <c r="W14" s="23">
-        <f t="shared" si="17"/>
+      <c r="W14" s="22">
+        <f t="shared" si="20"/>
         <v>580.07640389189191</v>
       </c>
-      <c r="X14" s="23">
-        <f t="shared" si="17"/>
+      <c r="X14" s="22">
+        <f t="shared" si="20"/>
         <v>805.74996376216222</v>
       </c>
-      <c r="Y14" s="23">
-        <f t="shared" si="17"/>
+      <c r="Y14" s="22">
+        <f t="shared" si="20"/>
         <v>1028.8807229578376</v>
       </c>
     </row>
@@ -1709,33 +1703,33 @@
         <f>4.13-2.109</f>
         <v>2.0209999999999999</v>
       </c>
-      <c r="S15" s="23">
-        <f t="shared" ref="S15:S17" si="18">SUM(G15:J15)</f>
+      <c r="S15" s="22">
+        <f t="shared" ref="S15:S17" si="21">SUM(G15:J15)</f>
         <v>4.76</v>
       </c>
-      <c r="T15" s="23">
+      <c r="T15" s="22">
         <f>SUM(K15:N15)</f>
         <v>0</v>
       </c>
-      <c r="U15" s="23">
+      <c r="U15" s="22">
         <f>+T24*$AB$24</f>
-        <v>25.854611459459463</v>
-      </c>
-      <c r="V15" s="23">
-        <f t="shared" ref="V15:Y15" si="19">+U24*$AB$24</f>
-        <v>38.737645215135139</v>
-      </c>
-      <c r="W15" s="23">
-        <f t="shared" si="19"/>
-        <v>56.913155434551356</v>
-      </c>
-      <c r="X15" s="23">
-        <f t="shared" si="19"/>
-        <v>82.392737807609095</v>
-      </c>
-      <c r="Y15" s="23">
-        <f t="shared" si="19"/>
-        <v>117.91844587039996</v>
+        <v>23.240731891891894</v>
+      </c>
+      <c r="V15" s="22">
+        <f t="shared" ref="V15:Y15" si="22">+U24*$AB$24</f>
+        <v>36.019210464864862</v>
+      </c>
+      <c r="W15" s="22">
+        <f t="shared" si="22"/>
+        <v>54.085983294270278</v>
+      </c>
+      <c r="X15" s="22">
+        <f t="shared" si="22"/>
+        <v>79.452478781716763</v>
+      </c>
+      <c r="Y15" s="22">
+        <f t="shared" si="22"/>
+        <v>114.86057648347192</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
@@ -1743,7 +1737,7 @@
         <v>27</v>
       </c>
       <c r="E16" s="4">
-        <f t="shared" ref="E16" si="20">+E14+E15</f>
+        <f t="shared" ref="E16" si="23">+E14+E15</f>
         <v>-38.954000000000008</v>
       </c>
       <c r="F16" s="4">
@@ -1763,52 +1757,52 @@
         <v>33.7393945945946</v>
       </c>
       <c r="J16" s="4">
-        <f t="shared" ref="J16:N16" si="21">+J14+J15</f>
-        <v>40.917989189189186</v>
+        <f>+J14+J15</f>
+        <v>-24.429000000000002</v>
       </c>
       <c r="K16" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="J16:N16" si="24">+K14+K15</f>
         <v>48.096583783783785</v>
       </c>
       <c r="L16" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>55.275178378378378</v>
       </c>
       <c r="M16" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>62.45377297297297</v>
       </c>
       <c r="N16" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>69.63236756756757</v>
       </c>
-      <c r="S16" s="23">
+      <c r="S16" s="22">
         <f>+S14+S15</f>
-        <v>8.4183837837837903</v>
-      </c>
-      <c r="T16" s="23">
+        <v>-56.928605405405442</v>
+      </c>
+      <c r="T16" s="22">
         <f>+T14+T15</f>
         <v>235.45790270270271</v>
       </c>
-      <c r="U16" s="23">
-        <f t="shared" ref="U16:Y16" si="22">+U14+U15</f>
-        <v>322.07584389189191</v>
-      </c>
-      <c r="V16" s="23">
-        <f t="shared" si="22"/>
-        <v>454.38775548540542</v>
-      </c>
-      <c r="W16" s="23">
-        <f t="shared" si="22"/>
-        <v>636.98955932644321</v>
-      </c>
-      <c r="X16" s="23">
-        <f t="shared" si="22"/>
-        <v>888.14270156977136</v>
-      </c>
-      <c r="Y16" s="23">
-        <f t="shared" si="22"/>
-        <v>1146.7991688282375</v>
+      <c r="U16" s="22">
+        <f t="shared" ref="U16:Y16" si="25">+U14+U15</f>
+        <v>319.4619643243243</v>
+      </c>
+      <c r="V16" s="22">
+        <f t="shared" si="25"/>
+        <v>451.6693207351351</v>
+      </c>
+      <c r="W16" s="22">
+        <f t="shared" si="25"/>
+        <v>634.16238718616216</v>
+      </c>
+      <c r="X16" s="22">
+        <f t="shared" si="25"/>
+        <v>885.20244254387899</v>
+      </c>
+      <c r="Y16" s="22">
+        <f t="shared" si="25"/>
+        <v>1143.7412994413096</v>
       </c>
     </row>
     <row r="17" spans="2:42" x14ac:dyDescent="0.2">
@@ -1827,57 +1821,57 @@
       <c r="H17" s="4">
         <v>0</v>
       </c>
-      <c r="I17" s="22">
+      <c r="I17" s="21">
         <f>+I16*0.2</f>
         <v>6.7478789189189206</v>
       </c>
-      <c r="J17" s="22">
-        <f t="shared" ref="J17:N17" si="23">+J16*0.2</f>
-        <v>8.1835978378378371</v>
-      </c>
-      <c r="K17" s="22">
-        <f t="shared" si="23"/>
+      <c r="J17" s="21">
+        <f t="shared" ref="J17:N17" si="26">+J16*0.2</f>
+        <v>-4.8858000000000006</v>
+      </c>
+      <c r="K17" s="21">
+        <f t="shared" si="26"/>
         <v>9.6193167567567581</v>
       </c>
-      <c r="L17" s="22">
-        <f t="shared" si="23"/>
+      <c r="L17" s="21">
+        <f t="shared" si="26"/>
         <v>11.055035675675676</v>
       </c>
-      <c r="M17" s="22">
-        <f t="shared" si="23"/>
+      <c r="M17" s="21">
+        <f t="shared" si="26"/>
         <v>12.490754594594595</v>
       </c>
-      <c r="N17" s="22">
-        <f t="shared" si="23"/>
+      <c r="N17" s="21">
+        <f t="shared" si="26"/>
         <v>13.926473513513514</v>
       </c>
-      <c r="S17" s="23">
-        <f t="shared" si="18"/>
-        <v>14.870476756756759</v>
-      </c>
-      <c r="T17" s="23">
+      <c r="S17" s="22">
+        <f t="shared" si="21"/>
+        <v>1.80107891891892</v>
+      </c>
+      <c r="T17" s="22">
         <f>SUM(K17:N17)</f>
         <v>47.091580540540548</v>
       </c>
-      <c r="U17" s="23">
+      <c r="U17" s="22">
         <f>+U16*0.2</f>
-        <v>64.415168778378387</v>
-      </c>
-      <c r="V17" s="23">
-        <f t="shared" ref="V17:Y17" si="24">+V16*0.2</f>
-        <v>90.877551097081096</v>
-      </c>
-      <c r="W17" s="23">
-        <f t="shared" si="24"/>
-        <v>127.39791186528865</v>
-      </c>
-      <c r="X17" s="23">
-        <f t="shared" si="24"/>
-        <v>177.62854031395429</v>
-      </c>
-      <c r="Y17" s="23">
-        <f t="shared" si="24"/>
-        <v>229.35983376564752</v>
+        <v>63.89239286486486</v>
+      </c>
+      <c r="V17" s="22">
+        <f t="shared" ref="V17:Y17" si="27">+V16*0.2</f>
+        <v>90.333864147027029</v>
+      </c>
+      <c r="W17" s="22">
+        <f t="shared" si="27"/>
+        <v>126.83247743723244</v>
+      </c>
+      <c r="X17" s="22">
+        <f t="shared" si="27"/>
+        <v>177.04048850877581</v>
+      </c>
+      <c r="Y17" s="22">
+        <f t="shared" si="27"/>
+        <v>228.74825988826194</v>
       </c>
     </row>
     <row r="18" spans="2:42" x14ac:dyDescent="0.2">
@@ -1885,7 +1879,7 @@
         <v>29</v>
       </c>
       <c r="E18" s="4">
-        <f t="shared" ref="E18" si="25">+E16-E17</f>
+        <f t="shared" ref="E18" si="28">+E16-E17</f>
         <v>-38.954000000000008</v>
       </c>
       <c r="F18" s="4">
@@ -1905,120 +1899,120 @@
         <v>26.991515675675679</v>
       </c>
       <c r="J18" s="4">
-        <f t="shared" ref="J18:N18" si="26">+J16-J17</f>
-        <v>32.734391351351348</v>
+        <f t="shared" ref="J18:N18" si="29">+J16-J17</f>
+        <v>-19.543200000000002</v>
       </c>
       <c r="K18" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>38.477267027027025</v>
       </c>
       <c r="L18" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>44.220142702702702</v>
       </c>
       <c r="M18" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>49.963018378378379</v>
       </c>
       <c r="N18" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>55.705894054054056</v>
       </c>
-      <c r="S18" s="23">
+      <c r="S18" s="22">
         <f>+S16-S17</f>
-        <v>-6.4520929729729684</v>
-      </c>
-      <c r="T18" s="23">
+        <v>-58.72968432432436</v>
+      </c>
+      <c r="T18" s="22">
         <f>+T16-T17</f>
         <v>188.36632216216216</v>
       </c>
-      <c r="U18" s="23">
-        <f t="shared" ref="U18:Y18" si="27">+U16-U17</f>
-        <v>257.66067511351355</v>
-      </c>
-      <c r="V18" s="23">
-        <f t="shared" si="27"/>
-        <v>363.51020438832433</v>
-      </c>
-      <c r="W18" s="23">
-        <f t="shared" si="27"/>
-        <v>509.59164746115459</v>
-      </c>
-      <c r="X18" s="23">
-        <f t="shared" si="27"/>
-        <v>710.51416125581704</v>
-      </c>
-      <c r="Y18" s="23">
-        <f t="shared" si="27"/>
-        <v>917.43933506258998</v>
-      </c>
-      <c r="Z18" s="23">
+      <c r="U18" s="22">
+        <f t="shared" ref="U18:Y18" si="30">+U16-U17</f>
+        <v>255.56957145945944</v>
+      </c>
+      <c r="V18" s="22">
+        <f t="shared" si="30"/>
+        <v>361.33545658810806</v>
+      </c>
+      <c r="W18" s="22">
+        <f t="shared" si="30"/>
+        <v>507.32990974892971</v>
+      </c>
+      <c r="X18" s="22">
+        <f t="shared" si="30"/>
+        <v>708.16195403510324</v>
+      </c>
+      <c r="Y18" s="22">
+        <f t="shared" si="30"/>
+        <v>914.99303955304765</v>
+      </c>
+      <c r="Z18" s="22">
         <f>+Y18*(1+$AB$22)</f>
-        <v>458.71966753129499</v>
-      </c>
-      <c r="AA18" s="23">
-        <f t="shared" ref="AA18:AP18" si="28">+Z18*(1+$AB$22)</f>
-        <v>229.35983376564749</v>
-      </c>
-      <c r="AB18" s="23">
-        <f t="shared" si="28"/>
-        <v>114.67991688282375</v>
-      </c>
-      <c r="AC18" s="23">
-        <f t="shared" si="28"/>
-        <v>57.339958441411873</v>
-      </c>
-      <c r="AD18" s="23">
-        <f t="shared" si="28"/>
-        <v>28.669979220705937</v>
-      </c>
-      <c r="AE18" s="23">
-        <f t="shared" si="28"/>
-        <v>14.334989610352968</v>
-      </c>
-      <c r="AF18" s="23">
-        <f t="shared" si="28"/>
-        <v>7.1674948051764842</v>
-      </c>
-      <c r="AG18" s="23">
-        <f t="shared" si="28"/>
-        <v>3.5837474025882421</v>
-      </c>
-      <c r="AH18" s="23">
-        <f t="shared" si="28"/>
-        <v>1.791873701294121</v>
-      </c>
-      <c r="AI18" s="23">
-        <f t="shared" si="28"/>
-        <v>0.89593685064706052</v>
-      </c>
-      <c r="AJ18" s="23">
-        <f t="shared" si="28"/>
-        <v>0.44796842532353026</v>
-      </c>
-      <c r="AK18" s="23">
-        <f t="shared" si="28"/>
-        <v>0.22398421266176513</v>
-      </c>
-      <c r="AL18" s="23">
-        <f t="shared" si="28"/>
-        <v>0.11199210633088257</v>
-      </c>
-      <c r="AM18" s="23">
-        <f t="shared" si="28"/>
-        <v>5.5996053165441283E-2</v>
-      </c>
-      <c r="AN18" s="23">
-        <f t="shared" si="28"/>
-        <v>2.7998026582720641E-2</v>
-      </c>
-      <c r="AO18" s="23">
-        <f t="shared" si="28"/>
-        <v>1.3999013291360321E-2</v>
-      </c>
-      <c r="AP18" s="23">
-        <f t="shared" si="28"/>
-        <v>6.9995066456801603E-3</v>
+        <v>457.49651977652383</v>
+      </c>
+      <c r="AA18" s="22">
+        <f t="shared" ref="AA18:AP18" si="31">+Z18*(1+$AB$22)</f>
+        <v>228.74825988826191</v>
+      </c>
+      <c r="AB18" s="22">
+        <f t="shared" si="31"/>
+        <v>114.37412994413096</v>
+      </c>
+      <c r="AC18" s="22">
+        <f t="shared" si="31"/>
+        <v>57.187064972065478</v>
+      </c>
+      <c r="AD18" s="22">
+        <f t="shared" si="31"/>
+        <v>28.593532486032739</v>
+      </c>
+      <c r="AE18" s="22">
+        <f t="shared" si="31"/>
+        <v>14.29676624301637</v>
+      </c>
+      <c r="AF18" s="22">
+        <f t="shared" si="31"/>
+        <v>7.1483831215081848</v>
+      </c>
+      <c r="AG18" s="22">
+        <f t="shared" si="31"/>
+        <v>3.5741915607540924</v>
+      </c>
+      <c r="AH18" s="22">
+        <f t="shared" si="31"/>
+        <v>1.7870957803770462</v>
+      </c>
+      <c r="AI18" s="22">
+        <f t="shared" si="31"/>
+        <v>0.8935478901885231</v>
+      </c>
+      <c r="AJ18" s="22">
+        <f t="shared" si="31"/>
+        <v>0.44677394509426155</v>
+      </c>
+      <c r="AK18" s="22">
+        <f t="shared" si="31"/>
+        <v>0.22338697254713077</v>
+      </c>
+      <c r="AL18" s="22">
+        <f t="shared" si="31"/>
+        <v>0.11169348627356539</v>
+      </c>
+      <c r="AM18" s="22">
+        <f t="shared" si="31"/>
+        <v>5.5846743136782694E-2</v>
+      </c>
+      <c r="AN18" s="22">
+        <f t="shared" si="31"/>
+        <v>2.7923371568391347E-2</v>
+      </c>
+      <c r="AO18" s="22">
+        <f t="shared" si="31"/>
+        <v>1.3961685784195673E-2</v>
+      </c>
+      <c r="AP18" s="22">
+        <f t="shared" si="31"/>
+        <v>6.9808428920978367E-3</v>
       </c>
     </row>
     <row r="19" spans="2:42" x14ac:dyDescent="0.2">
@@ -2026,7 +2020,7 @@
         <v>30</v>
       </c>
       <c r="E19" s="5">
-        <f t="shared" ref="E19" si="29">+E18/E20</f>
+        <f t="shared" ref="E19" si="32">+E18/E20</f>
         <v>-1.2720736819143088</v>
       </c>
       <c r="F19" s="5">
@@ -2046,52 +2040,52 @@
         <v>0.71362264763764849</v>
       </c>
       <c r="J19" s="5">
-        <f t="shared" ref="J19:N19" si="30">+J18/J20</f>
-        <v>0.86545725351799907</v>
+        <f t="shared" ref="J19:N19" si="33">+J18/J20</f>
+        <v>-0.51669829493422736</v>
       </c>
       <c r="K19" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>1.0172918593983498</v>
       </c>
       <c r="L19" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>1.1691264652787006</v>
       </c>
       <c r="M19" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>1.3209610711590514</v>
       </c>
       <c r="N19" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>1.472795677039402</v>
       </c>
       <c r="S19" s="1">
-        <f>+S18/S20</f>
-        <v>-0.17347792216648134</v>
+        <f t="shared" ref="S19:Y19" si="34">+S18/S20</f>
+        <v>-1.579069559095742</v>
       </c>
       <c r="T19" s="1">
-        <f>+T18/T20</f>
+        <f t="shared" si="34"/>
         <v>4.9801750728755039</v>
       </c>
       <c r="U19" s="1">
-        <f>+U18/U20</f>
-        <v>6.8122329763167926</v>
+        <f t="shared" si="34"/>
+        <v>6.7569467543787018</v>
       </c>
       <c r="V19" s="1">
-        <f>+V18/V20</f>
-        <v>9.6107650128249027</v>
+        <f t="shared" si="34"/>
+        <v>9.5532673420092902</v>
       </c>
       <c r="W19" s="1">
-        <f>+W18/W20</f>
-        <v>13.472979622370055</v>
+        <f t="shared" si="34"/>
+        <v>13.413182044721816</v>
       </c>
       <c r="X19" s="1">
-        <f>+X18/X20</f>
-        <v>18.785125038248765</v>
+        <f t="shared" si="34"/>
+        <v>18.722935557494601</v>
       </c>
       <c r="Y19" s="1">
-        <f>+Y18/Y20</f>
-        <v>24.255973439990967</v>
+        <f t="shared" si="34"/>
+        <v>24.191296380006637</v>
       </c>
     </row>
     <row r="20" spans="2:42" x14ac:dyDescent="0.2">
@@ -2119,47 +2113,47 @@
         <v>37.823233000000002</v>
       </c>
       <c r="K20" s="4">
-        <f t="shared" ref="K20:N20" si="31">+J20</f>
+        <f t="shared" ref="K20:N20" si="35">+J20</f>
         <v>37.823233000000002</v>
       </c>
       <c r="L20" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>37.823233000000002</v>
       </c>
       <c r="M20" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>37.823233000000002</v>
       </c>
       <c r="N20" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>37.823233000000002</v>
       </c>
-      <c r="S20" s="23">
+      <c r="S20" s="22">
         <f>AVERAGE(G20:J20)</f>
         <v>37.192588499999999</v>
       </c>
-      <c r="T20" s="23">
+      <c r="T20" s="22">
         <f>AVERAGE(K20:N20)</f>
         <v>37.823233000000002</v>
       </c>
-      <c r="U20" s="23">
+      <c r="U20" s="22">
         <f>+T20</f>
         <v>37.823233000000002</v>
       </c>
-      <c r="V20" s="23">
-        <f t="shared" ref="V20:Y20" si="32">+U20</f>
+      <c r="V20" s="22">
+        <f t="shared" ref="V20:Y20" si="36">+U20</f>
         <v>37.823233000000002</v>
       </c>
-      <c r="W20" s="23">
-        <f t="shared" si="32"/>
+      <c r="W20" s="22">
+        <f t="shared" si="36"/>
         <v>37.823233000000002</v>
       </c>
-      <c r="X20" s="23">
-        <f t="shared" si="32"/>
+      <c r="X20" s="22">
+        <f t="shared" si="36"/>
         <v>37.823233000000002</v>
       </c>
-      <c r="Y20" s="23">
-        <f t="shared" si="32"/>
+      <c r="Y20" s="22">
+        <f t="shared" si="36"/>
         <v>37.823233000000002</v>
       </c>
     </row>
@@ -2167,78 +2161,78 @@
       <c r="B22" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="20">
         <f>+E10/E8</f>
         <v>0.80344108446298224</v>
       </c>
-      <c r="F22" s="21">
-        <f t="shared" ref="F22:N22" si="33">+F10/F8</f>
+      <c r="F22" s="20">
+        <f t="shared" ref="F22:N22" si="37">+F10/F8</f>
         <v>0.90717557251908398</v>
       </c>
-      <c r="G22" s="21">
-        <f t="shared" si="33"/>
+      <c r="G22" s="20">
+        <f t="shared" si="37"/>
         <v>0.94010284638226982</v>
       </c>
-      <c r="H22" s="21">
-        <f t="shared" si="33"/>
+      <c r="H22" s="20">
+        <f t="shared" si="37"/>
         <v>0.92637254901960786</v>
       </c>
-      <c r="I22" s="21">
-        <f t="shared" si="33"/>
+      <c r="I22" s="20">
+        <f t="shared" si="37"/>
         <v>0.93</v>
       </c>
-      <c r="J22" s="21">
-        <f t="shared" si="33"/>
+      <c r="J22" s="20">
+        <f t="shared" si="37"/>
+        <v>0.9258132530120482</v>
+      </c>
+      <c r="K22" s="20">
+        <f t="shared" si="37"/>
         <v>0.93</v>
       </c>
-      <c r="K22" s="21">
-        <f t="shared" si="33"/>
+      <c r="L22" s="20">
+        <f t="shared" si="37"/>
+        <v>0.92999999999999994</v>
+      </c>
+      <c r="M22" s="20">
+        <f t="shared" si="37"/>
         <v>0.93</v>
       </c>
-      <c r="L22" s="21">
-        <f t="shared" si="33"/>
-        <v>0.92999999999999994</v>
-      </c>
-      <c r="M22" s="21">
-        <f t="shared" si="33"/>
+      <c r="N22" s="20">
+        <f t="shared" si="37"/>
         <v>0.93</v>
       </c>
-      <c r="N22" s="21">
-        <f t="shared" si="33"/>
+      <c r="S22" s="20">
+        <f t="shared" ref="S22:Y22" si="38">+S10/S8</f>
+        <v>0.92921228466033512</v>
+      </c>
+      <c r="T22" s="20">
+        <f t="shared" si="38"/>
         <v>0.93</v>
       </c>
-      <c r="S22" s="21">
-        <f t="shared" ref="S22:Y22" si="34">+S10/S8</f>
-        <v>0.93071536602308835</v>
-      </c>
-      <c r="T22" s="21">
-        <f t="shared" si="34"/>
+      <c r="U22" s="20">
+        <f t="shared" si="38"/>
         <v>0.93</v>
       </c>
-      <c r="U22" s="21">
-        <f t="shared" si="34"/>
+      <c r="V22" s="20">
+        <f t="shared" si="38"/>
         <v>0.93</v>
       </c>
-      <c r="V22" s="21">
-        <f t="shared" si="34"/>
+      <c r="W22" s="20">
+        <f t="shared" si="38"/>
         <v>0.93</v>
       </c>
-      <c r="W22" s="21">
-        <f t="shared" si="34"/>
+      <c r="X22" s="20">
+        <f t="shared" si="38"/>
         <v>0.93</v>
       </c>
-      <c r="X22" s="21">
-        <f t="shared" si="34"/>
-        <v>0.93</v>
-      </c>
-      <c r="Y22" s="21">
-        <f t="shared" si="34"/>
+      <c r="Y22" s="20">
+        <f t="shared" si="38"/>
         <v>0.92999999999999994</v>
       </c>
       <c r="AA22" t="s">
         <v>55</v>
       </c>
-      <c r="AB22" s="25">
+      <c r="AB22" s="24">
         <v>-0.5</v>
       </c>
     </row>
@@ -2246,7 +2240,7 @@
       <c r="AA23" t="s">
         <v>56</v>
       </c>
-      <c r="AB23" s="25">
+      <c r="AB23" s="24">
         <v>0.08</v>
       </c>
     </row>
@@ -2258,58 +2252,58 @@
         <f>299-30</f>
         <v>269</v>
       </c>
-      <c r="I24" s="20">
+      <c r="I24" s="19">
         <f>+H24+I18</f>
         <v>295.99151567567566</v>
       </c>
-      <c r="J24" s="20">
-        <f t="shared" ref="J24:N24" si="35">+I24+J18</f>
-        <v>328.72590702702701</v>
-      </c>
-      <c r="K24" s="20">
-        <f t="shared" si="35"/>
-        <v>367.20317405405405</v>
-      </c>
-      <c r="L24" s="20">
-        <f t="shared" si="35"/>
-        <v>411.42331675675678</v>
-      </c>
-      <c r="M24" s="20">
-        <f t="shared" si="35"/>
-        <v>461.38633513513514</v>
-      </c>
-      <c r="N24" s="20">
-        <f t="shared" si="35"/>
-        <v>517.0922291891892</v>
+      <c r="J24" s="19">
+        <f t="shared" ref="J24:N24" si="39">+I24+J18</f>
+        <v>276.44831567567564</v>
+      </c>
+      <c r="K24" s="19">
+        <f t="shared" si="39"/>
+        <v>314.92558270270268</v>
+      </c>
+      <c r="L24" s="19">
+        <f t="shared" si="39"/>
+        <v>359.14572540540541</v>
+      </c>
+      <c r="M24" s="19">
+        <f t="shared" si="39"/>
+        <v>409.10874378378378</v>
+      </c>
+      <c r="N24" s="19">
+        <f t="shared" si="39"/>
+        <v>464.81463783783784</v>
       </c>
       <c r="T24" s="2">
         <f>+N24</f>
-        <v>517.0922291891892</v>
+        <v>464.81463783783784</v>
       </c>
       <c r="U24" s="2">
         <f>+T24+U18</f>
-        <v>774.75290430270275</v>
+        <v>720.38420929729728</v>
       </c>
       <c r="V24" s="2">
-        <f t="shared" ref="V24:Y24" si="36">+U24+V18</f>
-        <v>1138.2631086910271</v>
+        <f t="shared" ref="V24:Y24" si="40">+U24+V18</f>
+        <v>1081.7196658854054</v>
       </c>
       <c r="W24" s="2">
-        <f t="shared" si="36"/>
-        <v>1647.8547561521818</v>
+        <f t="shared" si="40"/>
+        <v>1589.0495756343353</v>
       </c>
       <c r="X24" s="2">
-        <f t="shared" si="36"/>
-        <v>2358.3689174079991</v>
+        <f t="shared" si="40"/>
+        <v>2297.2115296694383</v>
       </c>
       <c r="Y24" s="2">
-        <f t="shared" si="36"/>
-        <v>3275.8082524705892</v>
+        <f t="shared" si="40"/>
+        <v>3212.204569222486</v>
       </c>
       <c r="AA24" t="s">
         <v>63</v>
       </c>
-      <c r="AB24" s="25">
+      <c r="AB24" s="24">
         <v>0.05</v>
       </c>
     </row>
@@ -2319,7 +2313,7 @@
       </c>
       <c r="AB25" s="2">
         <f>NPV(AB23,T18:AP18)+Main!J5-Main!J6</f>
-        <v>2887.1419531576039</v>
+        <v>2877.4889388128513</v>
       </c>
     </row>
     <row r="26" spans="2:42" x14ac:dyDescent="0.2">
@@ -2328,7 +2322,7 @@
       </c>
       <c r="AB26" s="1">
         <f>AB25/Main!J3</f>
-        <v>76.416426155323535</v>
+        <v>76.160931666372164</v>
       </c>
     </row>
   </sheetData>
@@ -2387,22 +2381,22 @@
       <c r="B5" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>59</v>
       </c>
     </row>

--- a/TARS.xlsx
+++ b/TARS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0D084D-1A83-48B6-A517-75654ECF3CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A598B8-22A0-4224-8633-E7AE954BF01B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30000" yWindow="1830" windowWidth="25155" windowHeight="19005" activeTab="1" xr2:uid="{A78D39FC-A144-4ED2-83F9-E1606067542F}"/>
+    <workbookView xWindow="54250" yWindow="2780" windowWidth="20470" windowHeight="15910" activeTab="1" xr2:uid="{A78D39FC-A144-4ED2-83F9-E1606067542F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="81">
   <si>
     <t>Price</t>
   </si>
@@ -230,6 +230,57 @@
   </si>
   <si>
     <t>ROIC</t>
+  </si>
+  <si>
+    <t>Revenue y/y</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>Other Receivables</t>
+  </si>
+  <si>
+    <t>Prepaids</t>
+  </si>
+  <si>
+    <t>Payors</t>
+  </si>
+  <si>
+    <t>Medicare is 50% of the market.</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>PPE</t>
+  </si>
+  <si>
+    <t>Intangibles</t>
+  </si>
+  <si>
+    <t>Lease</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>L+SE</t>
+  </si>
+  <si>
+    <t>Payroll</t>
+  </si>
+  <si>
+    <t>OLTL</t>
   </si>
 </sst>
 </file>
@@ -445,7 +496,7 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>27213</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -487,16 +538,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>27214</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>30843</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>78014</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>27214</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>10886</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>30843</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -511,8 +562,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11321143" y="38100"/>
-          <a:ext cx="0" cy="5197929"/>
+          <a:off x="12273643" y="78014"/>
+          <a:ext cx="0" cy="5248729"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -857,18 +908,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FF81DF0-2EE8-4720-AFD4-9D099EA9A3C1}">
   <dimension ref="B2:K10"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.7265625" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
         <v>31</v>
       </c>
@@ -885,10 +936,10 @@
         <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>48.6</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+        <v>49.72</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="25" t="s">
         <v>33</v>
       </c>
@@ -903,13 +954,13 @@
         <v>1</v>
       </c>
       <c r="J3" s="2">
-        <v>37.781692999999997</v>
+        <v>38.377178000000001</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -921,10 +972,10 @@
       </c>
       <c r="J4" s="2">
         <f>+J2*J3</f>
-        <v>1836.1902797999999</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+        <v>1908.1132901599999</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>39</v>
       </c>
@@ -936,14 +987,13 @@
         <v>3</v>
       </c>
       <c r="J5" s="2">
-        <f>193.705+104.819</f>
-        <v>298.524</v>
+        <v>291.39999999999998</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
         <v>40</v>
       </c>
@@ -958,22 +1008,22 @@
         <v>4</v>
       </c>
       <c r="J6" s="2">
-        <v>29.933</v>
+        <v>71.844999999999999</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="I7" t="s">
         <v>5</v>
       </c>
       <c r="J7" s="2">
         <f>+J4-J5+J6</f>
-        <v>1567.5992797999997</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+        <v>1688.5582901599998</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="I9" t="s">
         <v>7</v>
       </c>
@@ -981,7 +1031,7 @@
         <v>555.65499999999997</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="I10" t="s">
         <v>8</v>
       </c>
@@ -999,29 +1049,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C4CC2C-021D-4F80-96F6-D85DE8C5C4B9}">
-  <dimension ref="A1:AP26"/>
+  <dimension ref="A1:AP41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="U3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
+      <selection pane="bottomRight" activeCell="AA8" sqref="AA8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="9.140625" style="3"/>
+    <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="9.1796875" style="3"/>
     <col min="28" max="28" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
@@ -1098,7 +1148,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>53</v>
       </c>
@@ -1115,39 +1165,37 @@
         <v>37</v>
       </c>
       <c r="I3" s="4">
-        <f t="shared" ref="I3:N3" si="1">+H3+10</f>
-        <v>47</v>
+        <v>41.4</v>
       </c>
       <c r="J3" s="4">
-        <f t="shared" si="1"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K3" s="4">
-        <f t="shared" si="1"/>
-        <v>67</v>
+        <f t="shared" ref="I3:N3" si="1">+J3+10</f>
+        <v>68</v>
       </c>
       <c r="L3" s="4">
         <f t="shared" si="1"/>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M3" s="4">
         <f t="shared" si="1"/>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N3" s="4">
         <f t="shared" si="1"/>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S3" s="22">
         <f>SUM(G3:J3)</f>
-        <v>167</v>
+        <v>162.4</v>
       </c>
       <c r="T3" s="22">
         <f>SUM(K3:N3)</f>
-        <v>328</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -1168,37 +1216,37 @@
         <v>1102.7027027027027</v>
       </c>
       <c r="I4" s="19">
-        <f t="shared" ref="I4:N4" si="3">+H4</f>
-        <v>1102.7027027027027</v>
+        <f>+I6*1000/I3</f>
+        <v>1161.8357487922706</v>
       </c>
       <c r="J4" s="19">
-        <f t="shared" si="3"/>
-        <v>1102.7027027027027</v>
+        <f>+J6*1000/J3</f>
+        <v>1144.8275862068965</v>
       </c>
       <c r="K4" s="19">
-        <f t="shared" si="3"/>
-        <v>1102.7027027027027</v>
+        <f t="shared" ref="I4:N4" si="3">+J4</f>
+        <v>1144.8275862068965</v>
       </c>
       <c r="L4" s="19">
         <f t="shared" si="3"/>
-        <v>1102.7027027027027</v>
+        <v>1144.8275862068965</v>
       </c>
       <c r="M4" s="19">
         <f t="shared" si="3"/>
-        <v>1102.7027027027027</v>
+        <v>1144.8275862068965</v>
       </c>
       <c r="N4" s="19">
         <f t="shared" si="3"/>
-        <v>1102.7027027027027</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+        <v>1144.8275862068965</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>18</v>
       </c>
@@ -1214,8 +1262,15 @@
       <c r="H6" s="3">
         <v>40.799999999999997</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="I6" s="3">
+        <v>48.1</v>
+      </c>
+      <c r="J6" s="4">
+        <f>+J8</f>
+        <v>66.400000000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>19</v>
       </c>
@@ -1226,7 +1281,7 @@
         <v>2.8940000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:26" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" s="16" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B8" s="16" t="s">
         <v>10</v>
       </c>
@@ -1249,58 +1304,65 @@
         <v>40.799999999999997</v>
       </c>
       <c r="I8" s="18">
-        <f>+I4*I3/1000</f>
-        <v>51.827027027027029</v>
+        <v>48.118000000000002</v>
       </c>
       <c r="J8" s="18">
         <v>66.400000000000006</v>
       </c>
       <c r="K8" s="18">
-        <f t="shared" ref="J8:N8" si="5">+K4*K3/1000</f>
-        <v>73.881081081081078</v>
+        <f t="shared" ref="K8:N8" si="5">+K4*K3/1000</f>
+        <v>77.848275862068959</v>
       </c>
       <c r="L8" s="18">
         <f t="shared" si="5"/>
-        <v>84.908108108108109</v>
+        <v>89.296551724137927</v>
       </c>
       <c r="M8" s="18">
         <f t="shared" si="5"/>
-        <v>95.935135135135127</v>
+        <v>100.7448275862069</v>
       </c>
       <c r="N8" s="18">
         <f t="shared" si="5"/>
-        <v>106.96216216216216</v>
+        <v>112.19310344827585</v>
       </c>
       <c r="S8" s="23">
         <f>SUM(G8:J8)</f>
-        <v>186.64102702702701</v>
+        <v>182.93199999999999</v>
       </c>
       <c r="T8" s="23">
         <f>SUM(K8:N8)</f>
-        <v>361.68648648648644</v>
+        <v>380.08275862068962</v>
       </c>
       <c r="U8" s="23">
-        <f>+T8*1.3</f>
-        <v>470.19243243243238</v>
+        <f>+T8*1.25</f>
+        <v>475.10344827586204</v>
       </c>
       <c r="V8" s="23">
-        <f>+U8*1.3</f>
-        <v>611.25016216216216</v>
+        <f>+U8*1.2</f>
+        <v>570.1241379310344</v>
       </c>
       <c r="W8" s="23">
-        <f>+V8*1.3</f>
-        <v>794.62521081081081</v>
+        <f>+V8*1.2</f>
+        <v>684.14896551724121</v>
       </c>
       <c r="X8" s="23">
-        <f>+W8*1.3</f>
-        <v>1033.012774054054</v>
+        <f>+W8*1.15</f>
+        <v>786.77131034482738</v>
       </c>
       <c r="Y8" s="23">
-        <f>+X8*1.2</f>
-        <v>1239.6153288648648</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+        <f>+X8*1.1</f>
+        <v>865.44844137931022</v>
+      </c>
+      <c r="Z8" s="23">
+        <f t="shared" ref="Z8:AA8" si="6">+Y8*1.1</f>
+        <v>951.99328551724136</v>
+      </c>
+      <c r="AA8" s="23">
+        <f t="shared" si="6"/>
+        <v>1047.1926140689657</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -1317,63 +1379,70 @@
         <v>3.004</v>
       </c>
       <c r="I9" s="4">
-        <f>+I8-I10</f>
-        <v>3.6278918918918919</v>
+        <v>3.242</v>
       </c>
       <c r="J9" s="4">
         <v>4.9260000000000002</v>
       </c>
       <c r="K9" s="4">
-        <f t="shared" ref="J9:N9" si="6">+K8-K10</f>
-        <v>5.1716756756756723</v>
+        <f t="shared" ref="K9:N9" si="7">+K8-K10</f>
+        <v>5.449379310344824</v>
       </c>
       <c r="L9" s="4">
-        <f t="shared" si="6"/>
-        <v>5.9435675675675697</v>
+        <f t="shared" si="7"/>
+        <v>6.2507586206896519</v>
       </c>
       <c r="M9" s="4">
-        <f t="shared" si="6"/>
-        <v>6.7154594594594528</v>
+        <f t="shared" si="7"/>
+        <v>7.0521379310344798</v>
       </c>
       <c r="N9" s="4">
-        <f t="shared" si="6"/>
-        <v>7.4873513513513501</v>
+        <f t="shared" si="7"/>
+        <v>7.8535172413793077</v>
       </c>
       <c r="S9" s="22">
         <f>SUM(G9:J9)</f>
-        <v>13.211891891891892</v>
+        <v>12.826000000000001</v>
       </c>
       <c r="T9" s="22">
         <f>SUM(K9:N9)</f>
-        <v>25.318054054054045</v>
+        <v>26.605793103448264</v>
       </c>
       <c r="U9" s="22">
         <f>+U8-U10</f>
-        <v>32.913470270270238</v>
+        <v>33.257241379310301</v>
       </c>
       <c r="V9" s="22">
-        <f t="shared" ref="V9:Y9" si="7">+V8-V10</f>
-        <v>42.787511351351327</v>
+        <f t="shared" ref="V9:Y9" si="8">+V8-V10</f>
+        <v>39.908689655172338</v>
       </c>
       <c r="W9" s="22">
-        <f t="shared" si="7"/>
-        <v>55.623764756756714</v>
+        <f t="shared" si="8"/>
+        <v>47.890427586206897</v>
       </c>
       <c r="X9" s="22">
-        <f t="shared" si="7"/>
-        <v>72.310894183783716</v>
+        <f t="shared" si="8"/>
+        <v>55.073991724137841</v>
       </c>
       <c r="Y9" s="22">
-        <f t="shared" si="7"/>
-        <v>86.773073020540551</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>60.581390896551625</v>
+      </c>
+      <c r="Z9" s="22">
+        <f t="shared" ref="Z9:AA9" si="9">+Z8-Z10</f>
+        <v>66.639529986206867</v>
+      </c>
+      <c r="AA9" s="22">
+        <f t="shared" si="9"/>
+        <v>73.303482984827497</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="4">
-        <f t="shared" ref="E10" si="8">+E8-E9</f>
+        <f t="shared" ref="E10" si="10">+E8-E9</f>
         <v>1.5409999999999999</v>
       </c>
       <c r="F10" s="4">
@@ -1389,59 +1458,67 @@
         <v>37.795999999999999</v>
       </c>
       <c r="I10" s="4">
-        <f>+I8*0.93</f>
-        <v>48.199135135135137</v>
+        <f>+I8-I9</f>
+        <v>44.876000000000005</v>
       </c>
       <c r="J10" s="4">
         <f>+J8-J9</f>
         <v>61.474000000000004</v>
       </c>
       <c r="K10" s="4">
-        <f t="shared" ref="J10:N10" si="9">+K8*0.93</f>
-        <v>68.709405405405406</v>
+        <f t="shared" ref="K10:N10" si="11">+K8*0.93</f>
+        <v>72.398896551724135</v>
       </c>
       <c r="L10" s="4">
-        <f t="shared" si="9"/>
-        <v>78.96454054054054</v>
+        <f t="shared" si="11"/>
+        <v>83.045793103448275</v>
       </c>
       <c r="M10" s="4">
-        <f t="shared" si="9"/>
-        <v>89.219675675675674</v>
+        <f t="shared" si="11"/>
+        <v>93.692689655172416</v>
       </c>
       <c r="N10" s="4">
-        <f t="shared" si="9"/>
-        <v>99.474810810810808</v>
+        <f t="shared" si="11"/>
+        <v>104.33958620689654</v>
       </c>
       <c r="S10" s="22">
         <f>+S8-S9</f>
-        <v>173.42913513513511</v>
+        <v>170.10599999999999</v>
       </c>
       <c r="T10" s="22">
         <f>+T8-T9</f>
-        <v>336.36843243243243</v>
+        <v>353.47696551724135</v>
       </c>
       <c r="U10" s="22">
         <f>+U8*0.93</f>
-        <v>437.27896216216214</v>
+        <v>441.84620689655173</v>
       </c>
       <c r="V10" s="22">
-        <f t="shared" ref="V10:Y10" si="10">+V8*0.93</f>
-        <v>568.46265081081083</v>
+        <f t="shared" ref="V10:Y10" si="12">+V8*0.93</f>
+        <v>530.21544827586206</v>
       </c>
       <c r="W10" s="22">
-        <f t="shared" si="10"/>
-        <v>739.0014460540541</v>
+        <f t="shared" si="12"/>
+        <v>636.25853793103431</v>
       </c>
       <c r="X10" s="22">
-        <f t="shared" si="10"/>
-        <v>960.70187987027032</v>
+        <f t="shared" si="12"/>
+        <v>731.69731862068954</v>
       </c>
       <c r="Y10" s="22">
-        <f t="shared" si="10"/>
-        <v>1152.8422558443242</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>804.8670504827586</v>
+      </c>
+      <c r="Z10" s="22">
+        <f t="shared" ref="Z10:AA10" si="13">+Z8*0.93</f>
+        <v>885.35375553103449</v>
+      </c>
+      <c r="AA10" s="22">
+        <f t="shared" si="13"/>
+        <v>973.88913108413817</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>24</v>
       </c>
@@ -1457,19 +1534,22 @@
       <c r="H11" s="4">
         <v>12.319000000000001</v>
       </c>
+      <c r="I11" s="4">
+        <v>12.128</v>
+      </c>
       <c r="J11" s="4">
         <v>16.873000000000001</v>
       </c>
       <c r="S11" s="22">
-        <f t="shared" ref="S11:S12" si="11">SUM(G11:J11)</f>
-        <v>41.258000000000003</v>
+        <f t="shared" ref="S11:S12" si="14">SUM(G11:J11)</f>
+        <v>53.38600000000001</v>
       </c>
       <c r="T11" s="22">
         <f>SUM(K11:N11)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>25</v>
       </c>
@@ -1486,63 +1566,70 @@
         <v>58.792000000000002</v>
       </c>
       <c r="I12" s="21">
-        <f>+I10*0.3</f>
-        <v>14.45974054054054</v>
+        <v>57.91</v>
       </c>
       <c r="J12" s="21">
         <v>69.03</v>
       </c>
       <c r="K12" s="21">
-        <f t="shared" ref="J12:N12" si="12">+K10*0.3</f>
-        <v>20.61282162162162</v>
+        <f t="shared" ref="K12:N12" si="15">+K10*0.3</f>
+        <v>21.71966896551724</v>
       </c>
       <c r="L12" s="21">
-        <f t="shared" si="12"/>
-        <v>23.689362162162162</v>
+        <f t="shared" si="15"/>
+        <v>24.913737931034483</v>
       </c>
       <c r="M12" s="21">
-        <f t="shared" si="12"/>
-        <v>26.7659027027027</v>
+        <f t="shared" si="15"/>
+        <v>28.107806896551725</v>
       </c>
       <c r="N12" s="21">
-        <f t="shared" si="12"/>
-        <v>29.842443243243242</v>
+        <f t="shared" si="15"/>
+        <v>31.301875862068961</v>
       </c>
       <c r="S12" s="22">
-        <f t="shared" si="11"/>
-        <v>193.85974054054054</v>
+        <f t="shared" si="14"/>
+        <v>237.31</v>
       </c>
       <c r="T12" s="22">
         <f>SUM(K12:N12)</f>
-        <v>100.91052972972972</v>
+        <v>106.04308965517239</v>
       </c>
       <c r="U12" s="22">
         <f>+U8*0.3</f>
-        <v>141.05772972972972</v>
+        <v>142.5310344827586</v>
       </c>
       <c r="V12" s="22">
         <f>+V8*0.25</f>
-        <v>152.81254054054054</v>
+        <v>142.5310344827586</v>
       </c>
       <c r="W12" s="22">
         <f>+W8*0.2</f>
-        <v>158.92504216216219</v>
+        <v>136.82979310344825</v>
       </c>
       <c r="X12" s="22">
         <f>+X8*0.15</f>
-        <v>154.95191610810809</v>
+        <v>118.0156965517241</v>
       </c>
       <c r="Y12" s="22">
         <f>+Y8*0.1</f>
-        <v>123.96153288648648</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+        <v>86.544844137931022</v>
+      </c>
+      <c r="Z12" s="22">
+        <f t="shared" ref="Z12:AA12" si="16">+Z8*0.1</f>
+        <v>95.199328551724136</v>
+      </c>
+      <c r="AA12" s="22">
+        <f t="shared" si="16"/>
+        <v>104.71926140689658</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>20</v>
       </c>
       <c r="E13" s="4">
-        <f t="shared" ref="E13" si="13">+E12+E11</f>
+        <f t="shared" ref="E13" si="17">+E12+E11</f>
         <v>42.429000000000002</v>
       </c>
       <c r="F13" s="4">
@@ -1558,64 +1645,72 @@
         <v>71.111000000000004</v>
       </c>
       <c r="I13" s="4">
-        <f t="shared" ref="I13:N13" si="14">+I12+I11</f>
-        <v>14.45974054054054</v>
+        <f t="shared" ref="I13:N13" si="18">+I12+I11</f>
+        <v>70.037999999999997</v>
       </c>
       <c r="J13" s="4">
         <f>+J12+J11</f>
         <v>85.903000000000006</v>
       </c>
       <c r="K13" s="4">
-        <f t="shared" si="14"/>
-        <v>20.61282162162162</v>
+        <f t="shared" si="18"/>
+        <v>21.71966896551724</v>
       </c>
       <c r="L13" s="4">
-        <f t="shared" si="14"/>
-        <v>23.689362162162162</v>
+        <f t="shared" si="18"/>
+        <v>24.913737931034483</v>
       </c>
       <c r="M13" s="4">
-        <f t="shared" si="14"/>
-        <v>26.7659027027027</v>
+        <f t="shared" si="18"/>
+        <v>28.107806896551725</v>
       </c>
       <c r="N13" s="4">
-        <f t="shared" si="14"/>
-        <v>29.842443243243242</v>
+        <f t="shared" si="18"/>
+        <v>31.301875862068961</v>
       </c>
       <c r="S13" s="22">
-        <f t="shared" ref="S13" si="15">+S12+S11</f>
-        <v>235.11774054054055</v>
+        <f t="shared" ref="S13" si="19">+S12+S11</f>
+        <v>290.69600000000003</v>
       </c>
       <c r="T13" s="22">
         <f>+T12+T11</f>
-        <v>100.91052972972972</v>
+        <v>106.04308965517239</v>
       </c>
       <c r="U13" s="22">
-        <f t="shared" ref="U13:Y13" si="16">+U12+U11</f>
-        <v>141.05772972972972</v>
+        <f t="shared" ref="U13:Y13" si="20">+U12+U11</f>
+        <v>142.5310344827586</v>
       </c>
       <c r="V13" s="22">
-        <f t="shared" si="16"/>
-        <v>152.81254054054054</v>
+        <f t="shared" si="20"/>
+        <v>142.5310344827586</v>
       </c>
       <c r="W13" s="22">
-        <f t="shared" si="16"/>
-        <v>158.92504216216219</v>
+        <f t="shared" si="20"/>
+        <v>136.82979310344825</v>
       </c>
       <c r="X13" s="22">
-        <f t="shared" si="16"/>
-        <v>154.95191610810809</v>
+        <f t="shared" si="20"/>
+        <v>118.0156965517241</v>
       </c>
       <c r="Y13" s="22">
-        <f t="shared" si="16"/>
-        <v>123.96153288648648</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+        <f t="shared" si="20"/>
+        <v>86.544844137931022</v>
+      </c>
+      <c r="Z13" s="22">
+        <f t="shared" ref="Z13:AA13" si="21">+Z12+Z11</f>
+        <v>95.199328551724136</v>
+      </c>
+      <c r="AA13" s="22">
+        <f t="shared" si="21"/>
+        <v>104.71926140689658</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="4">
-        <f t="shared" ref="E14" si="17">+E10-E13</f>
+        <f t="shared" ref="E14" si="22">+E10-E13</f>
         <v>-40.888000000000005</v>
       </c>
       <c r="F14" s="4">
@@ -1631,62 +1726,72 @@
         <v>-33.315000000000005</v>
       </c>
       <c r="I14" s="4">
-        <f t="shared" ref="I14:N14" si="18">+I10-I13</f>
-        <v>33.7393945945946</v>
+        <f t="shared" ref="I14:N14" si="23">+I10-I13</f>
+        <v>-25.161999999999992</v>
       </c>
       <c r="J14" s="4">
         <f>+J10-J13</f>
         <v>-24.429000000000002</v>
       </c>
       <c r="K14" s="4">
-        <f t="shared" si="18"/>
-        <v>48.096583783783785</v>
+        <f t="shared" si="23"/>
+        <v>50.679227586206892</v>
       </c>
       <c r="L14" s="4">
-        <f t="shared" si="18"/>
-        <v>55.275178378378378</v>
+        <f t="shared" si="23"/>
+        <v>58.132055172413793</v>
       </c>
       <c r="M14" s="4">
-        <f t="shared" si="18"/>
-        <v>62.45377297297297</v>
+        <f t="shared" si="23"/>
+        <v>65.584882758620694</v>
       </c>
       <c r="N14" s="4">
-        <f t="shared" si="18"/>
-        <v>69.63236756756757</v>
+        <f t="shared" si="23"/>
+        <v>73.037710344827588</v>
       </c>
       <c r="S14" s="22">
-        <f t="shared" ref="S14" si="19">+S10-S13</f>
-        <v>-61.68860540540544</v>
+        <f t="shared" ref="S14" si="24">+S10-S13</f>
+        <v>-120.59000000000003</v>
       </c>
       <c r="T14" s="22">
         <f>+T10-T13</f>
-        <v>235.45790270270271</v>
+        <v>247.43387586206896</v>
       </c>
       <c r="U14" s="22">
-        <f t="shared" ref="U14:Y14" si="20">+U10-U13</f>
-        <v>296.22123243243243</v>
+        <f t="shared" ref="U14:Y14" si="25">+U10-U13</f>
+        <v>299.31517241379311</v>
       </c>
       <c r="V14" s="22">
-        <f t="shared" si="20"/>
-        <v>415.65011027027026</v>
+        <f t="shared" si="25"/>
+        <v>387.68441379310343</v>
       </c>
       <c r="W14" s="22">
-        <f t="shared" si="20"/>
-        <v>580.07640389189191</v>
+        <f t="shared" si="25"/>
+        <v>499.42874482758606</v>
       </c>
       <c r="X14" s="22">
-        <f t="shared" si="20"/>
-        <v>805.74996376216222</v>
+        <f t="shared" si="25"/>
+        <v>613.68162206896545</v>
       </c>
       <c r="Y14" s="22">
-        <f t="shared" si="20"/>
-        <v>1028.8807229578376</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
+        <f t="shared" si="25"/>
+        <v>718.32220634482758</v>
+      </c>
+      <c r="Z14" s="22">
+        <f t="shared" ref="Z14:AA14" si="26">+Z10-Z13</f>
+        <v>790.1544269793103</v>
+      </c>
+      <c r="AA14" s="22">
+        <f t="shared" si="26"/>
+        <v>869.16986967724165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="22" t="s">
         <v>26</v>
       </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
       <c r="E15" s="4">
         <f>2.84-0.858-0.048</f>
         <v>1.9339999999999997</v>
@@ -1703,41 +1808,56 @@
         <f>4.13-2.109</f>
         <v>2.0209999999999999</v>
       </c>
+      <c r="I15" s="4">
+        <f>4.12-2.445</f>
+        <v>1.6750000000000003</v>
+      </c>
+      <c r="J15" s="4">
+        <v>1.3080000000000001</v>
+      </c>
       <c r="S15" s="22">
-        <f t="shared" ref="S15:S17" si="21">SUM(G15:J15)</f>
-        <v>4.76</v>
+        <f t="shared" ref="S15:S17" si="27">SUM(G15:J15)</f>
+        <v>7.7430000000000003</v>
       </c>
       <c r="T15" s="22">
         <f>SUM(K15:N15)</f>
         <v>0</v>
       </c>
       <c r="U15" s="22">
-        <f>+T24*$AB$24</f>
-        <v>23.240731891891894</v>
+        <f>+T25*$AD$25</f>
+        <v>24.744255034482759</v>
       </c>
       <c r="V15" s="22">
-        <f t="shared" ref="V15:Y15" si="22">+U24*$AB$24</f>
-        <v>36.019210464864862</v>
+        <f>+U25*$AD$25</f>
+        <v>37.706632132413795</v>
       </c>
       <c r="W15" s="22">
-        <f t="shared" si="22"/>
-        <v>54.085983294270278</v>
+        <f>+V25*$AD$25</f>
+        <v>54.722273969434482</v>
       </c>
       <c r="X15" s="22">
-        <f t="shared" si="22"/>
-        <v>79.452478781716763</v>
+        <f>+W25*$AD$25</f>
+        <v>76.888314721315311</v>
       </c>
       <c r="Y15" s="22">
-        <f t="shared" si="22"/>
-        <v>114.86057648347192</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+        <f>+X25*$AD$25</f>
+        <v>104.51111219292653</v>
+      </c>
+      <c r="Z15" s="22">
+        <f>+Y25*$AD$25</f>
+        <v>137.42444493443668</v>
+      </c>
+      <c r="AA15" s="22">
+        <f>+Z25*$AD$25</f>
+        <v>174.52759981098657</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>27</v>
       </c>
       <c r="E16" s="4">
-        <f t="shared" ref="E16" si="23">+E14+E15</f>
+        <f t="shared" ref="E16" si="28">+E14+E15</f>
         <v>-38.954000000000008</v>
       </c>
       <c r="F16" s="4">
@@ -1754,58 +1874,66 @@
       </c>
       <c r="I16" s="4">
         <f>+I14+I15</f>
-        <v>33.7393945945946</v>
+        <v>-23.486999999999991</v>
       </c>
       <c r="J16" s="4">
         <f>+J14+J15</f>
-        <v>-24.429000000000002</v>
+        <v>-23.121000000000002</v>
       </c>
       <c r="K16" s="4">
-        <f t="shared" ref="J16:N16" si="24">+K14+K15</f>
-        <v>48.096583783783785</v>
+        <f t="shared" ref="K16:N16" si="29">+K14+K15</f>
+        <v>50.679227586206892</v>
       </c>
       <c r="L16" s="4">
-        <f t="shared" si="24"/>
-        <v>55.275178378378378</v>
+        <f t="shared" si="29"/>
+        <v>58.132055172413793</v>
       </c>
       <c r="M16" s="4">
-        <f t="shared" si="24"/>
-        <v>62.45377297297297</v>
+        <f t="shared" si="29"/>
+        <v>65.584882758620694</v>
       </c>
       <c r="N16" s="4">
-        <f t="shared" si="24"/>
-        <v>69.63236756756757</v>
+        <f t="shared" si="29"/>
+        <v>73.037710344827588</v>
       </c>
       <c r="S16" s="22">
         <f>+S14+S15</f>
-        <v>-56.928605405405442</v>
+        <v>-112.84700000000004</v>
       </c>
       <c r="T16" s="22">
         <f>+T14+T15</f>
-        <v>235.45790270270271</v>
+        <v>247.43387586206896</v>
       </c>
       <c r="U16" s="22">
-        <f t="shared" ref="U16:Y16" si="25">+U14+U15</f>
-        <v>319.4619643243243</v>
+        <f t="shared" ref="U16:Y16" si="30">+U14+U15</f>
+        <v>324.05942744827587</v>
       </c>
       <c r="V16" s="22">
-        <f t="shared" si="25"/>
-        <v>451.6693207351351</v>
+        <f t="shared" si="30"/>
+        <v>425.39104592551723</v>
       </c>
       <c r="W16" s="22">
-        <f t="shared" si="25"/>
-        <v>634.16238718616216</v>
+        <f t="shared" si="30"/>
+        <v>554.15101879702058</v>
       </c>
       <c r="X16" s="22">
-        <f t="shared" si="25"/>
-        <v>885.20244254387899</v>
+        <f t="shared" si="30"/>
+        <v>690.56993679028074</v>
       </c>
       <c r="Y16" s="22">
-        <f t="shared" si="25"/>
-        <v>1143.7412994413096</v>
-      </c>
-    </row>
-    <row r="17" spans="2:42" x14ac:dyDescent="0.2">
+        <f t="shared" si="30"/>
+        <v>822.83331853775417</v>
+      </c>
+      <c r="Z16" s="22">
+        <f t="shared" ref="Z16:AA16" si="31">+Z14+Z15</f>
+        <v>927.57887191374698</v>
+      </c>
+      <c r="AA16" s="22">
+        <f t="shared" si="31"/>
+        <v>1043.6974694882283</v>
+      </c>
+    </row>
+    <row r="17" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>28</v>
       </c>
@@ -1822,64 +1950,70 @@
         <v>0</v>
       </c>
       <c r="I17" s="21">
-        <f>+I16*0.2</f>
-        <v>6.7478789189189206</v>
+        <v>0</v>
       </c>
       <c r="J17" s="21">
-        <f t="shared" ref="J17:N17" si="26">+J16*0.2</f>
-        <v>-4.8858000000000006</v>
+        <v>0</v>
       </c>
       <c r="K17" s="21">
-        <f t="shared" si="26"/>
-        <v>9.6193167567567581</v>
+        <f t="shared" ref="J17:N17" si="32">+K16*0.2</f>
+        <v>10.135845517241378</v>
       </c>
       <c r="L17" s="21">
-        <f t="shared" si="26"/>
-        <v>11.055035675675676</v>
+        <f t="shared" si="32"/>
+        <v>11.626411034482759</v>
       </c>
       <c r="M17" s="21">
-        <f t="shared" si="26"/>
-        <v>12.490754594594595</v>
+        <f t="shared" si="32"/>
+        <v>13.116976551724139</v>
       </c>
       <c r="N17" s="21">
-        <f t="shared" si="26"/>
-        <v>13.926473513513514</v>
+        <f t="shared" si="32"/>
+        <v>14.607542068965518</v>
       </c>
       <c r="S17" s="22">
-        <f t="shared" si="21"/>
-        <v>1.80107891891892</v>
+        <f t="shared" si="27"/>
+        <v>-6.0999999999999999E-2</v>
       </c>
       <c r="T17" s="22">
         <f>SUM(K17:N17)</f>
-        <v>47.091580540540548</v>
+        <v>49.486775172413786</v>
       </c>
       <c r="U17" s="22">
         <f>+U16*0.2</f>
-        <v>63.89239286486486</v>
+        <v>64.811885489655182</v>
       </c>
       <c r="V17" s="22">
-        <f t="shared" ref="V17:Y17" si="27">+V16*0.2</f>
-        <v>90.333864147027029</v>
+        <f t="shared" ref="V17:Y17" si="33">+V16*0.2</f>
+        <v>85.078209185103447</v>
       </c>
       <c r="W17" s="22">
-        <f t="shared" si="27"/>
-        <v>126.83247743723244</v>
+        <f t="shared" si="33"/>
+        <v>110.83020375940413</v>
       </c>
       <c r="X17" s="22">
-        <f t="shared" si="27"/>
-        <v>177.04048850877581</v>
+        <f t="shared" si="33"/>
+        <v>138.11398735805616</v>
       </c>
       <c r="Y17" s="22">
-        <f t="shared" si="27"/>
-        <v>228.74825988826194</v>
-      </c>
-    </row>
-    <row r="18" spans="2:42" x14ac:dyDescent="0.2">
+        <f t="shared" si="33"/>
+        <v>164.56666370755084</v>
+      </c>
+      <c r="Z17" s="22">
+        <f t="shared" ref="Z17:AA17" si="34">+Z16*0.2</f>
+        <v>185.51577438274941</v>
+      </c>
+      <c r="AA17" s="22">
+        <f t="shared" si="34"/>
+        <v>208.73949389764567</v>
+      </c>
+    </row>
+    <row r="18" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>29</v>
       </c>
       <c r="E18" s="4">
-        <f t="shared" ref="E18" si="28">+E16-E17</f>
+        <f t="shared" ref="E18" si="35">+E16-E17</f>
         <v>-38.954000000000008</v>
       </c>
       <c r="F18" s="4">
@@ -1896,131 +2030,131 @@
       </c>
       <c r="I18" s="4">
         <f>+I16-I17</f>
-        <v>26.991515675675679</v>
+        <v>-23.486999999999991</v>
       </c>
       <c r="J18" s="4">
-        <f t="shared" ref="J18:N18" si="29">+J16-J17</f>
-        <v>-19.543200000000002</v>
+        <f t="shared" ref="J18:N18" si="36">+J16-J17</f>
+        <v>-23.121000000000002</v>
       </c>
       <c r="K18" s="4">
-        <f t="shared" si="29"/>
-        <v>38.477267027027025</v>
+        <f t="shared" si="36"/>
+        <v>40.543382068965514</v>
       </c>
       <c r="L18" s="4">
-        <f t="shared" si="29"/>
-        <v>44.220142702702702</v>
+        <f t="shared" si="36"/>
+        <v>46.505644137931036</v>
       </c>
       <c r="M18" s="4">
-        <f t="shared" si="29"/>
-        <v>49.963018378378379</v>
+        <f t="shared" si="36"/>
+        <v>52.467906206896558</v>
       </c>
       <c r="N18" s="4">
-        <f t="shared" si="29"/>
-        <v>55.705894054054056</v>
+        <f t="shared" si="36"/>
+        <v>58.430168275862073</v>
       </c>
       <c r="S18" s="22">
         <f>+S16-S17</f>
-        <v>-58.72968432432436</v>
+        <v>-112.78600000000003</v>
       </c>
       <c r="T18" s="22">
         <f>+T16-T17</f>
-        <v>188.36632216216216</v>
+        <v>197.94710068965517</v>
       </c>
       <c r="U18" s="22">
-        <f t="shared" ref="U18:Y18" si="30">+U16-U17</f>
-        <v>255.56957145945944</v>
+        <f t="shared" ref="U18:Y18" si="37">+U16-U17</f>
+        <v>259.24754195862067</v>
       </c>
       <c r="V18" s="22">
-        <f t="shared" si="30"/>
-        <v>361.33545658810806</v>
+        <f t="shared" si="37"/>
+        <v>340.31283674041379</v>
       </c>
       <c r="W18" s="22">
-        <f t="shared" si="30"/>
-        <v>507.32990974892971</v>
+        <f t="shared" si="37"/>
+        <v>443.32081503761646</v>
       </c>
       <c r="X18" s="22">
-        <f t="shared" si="30"/>
-        <v>708.16195403510324</v>
+        <f t="shared" si="37"/>
+        <v>552.45594943222454</v>
       </c>
       <c r="Y18" s="22">
-        <f t="shared" si="30"/>
-        <v>914.99303955304765</v>
+        <f t="shared" si="37"/>
+        <v>658.26665483020338</v>
       </c>
       <c r="Z18" s="22">
-        <f>+Y18*(1+$AB$22)</f>
-        <v>457.49651977652383</v>
+        <f t="shared" ref="Z18:AA18" si="38">+Z16-Z17</f>
+        <v>742.06309753099754</v>
       </c>
       <c r="AA18" s="22">
-        <f t="shared" ref="AA18:AP18" si="31">+Z18*(1+$AB$22)</f>
-        <v>228.74825988826191</v>
+        <f t="shared" si="38"/>
+        <v>834.95797559058269</v>
       </c>
       <c r="AB18" s="22">
-        <f t="shared" si="31"/>
-        <v>114.37412994413096</v>
+        <f>+AA18*(1+$AD$23)</f>
+        <v>417.47898779529135</v>
       </c>
       <c r="AC18" s="22">
-        <f t="shared" si="31"/>
-        <v>57.187064972065478</v>
+        <f>+AB18*(1+$AD$23)</f>
+        <v>208.73949389764567</v>
       </c>
       <c r="AD18" s="22">
-        <f t="shared" si="31"/>
-        <v>28.593532486032739</v>
+        <f>+AC18*(1+$AD$23)</f>
+        <v>104.36974694882284</v>
       </c>
       <c r="AE18" s="22">
-        <f t="shared" si="31"/>
-        <v>14.29676624301637</v>
+        <f>+AD18*(1+$AD$23)</f>
+        <v>52.184873474411418</v>
       </c>
       <c r="AF18" s="22">
-        <f t="shared" si="31"/>
-        <v>7.1483831215081848</v>
+        <f>+AE18*(1+$AD$23)</f>
+        <v>26.092436737205709</v>
       </c>
       <c r="AG18" s="22">
-        <f t="shared" si="31"/>
-        <v>3.5741915607540924</v>
+        <f>+AF18*(1+$AD$23)</f>
+        <v>13.046218368602855</v>
       </c>
       <c r="AH18" s="22">
-        <f t="shared" si="31"/>
-        <v>1.7870957803770462</v>
+        <f>+AG18*(1+$AD$23)</f>
+        <v>6.5231091843014273</v>
       </c>
       <c r="AI18" s="22">
-        <f t="shared" si="31"/>
-        <v>0.8935478901885231</v>
+        <f>+AH18*(1+$AD$23)</f>
+        <v>3.2615545921507136</v>
       </c>
       <c r="AJ18" s="22">
-        <f t="shared" si="31"/>
-        <v>0.44677394509426155</v>
+        <f>+AI18*(1+$AD$23)</f>
+        <v>1.6307772960753568</v>
       </c>
       <c r="AK18" s="22">
-        <f t="shared" si="31"/>
-        <v>0.22338697254713077</v>
+        <f>+AJ18*(1+$AD$23)</f>
+        <v>0.81538864803767841</v>
       </c>
       <c r="AL18" s="22">
-        <f t="shared" si="31"/>
-        <v>0.11169348627356539</v>
+        <f>+AK18*(1+$AD$23)</f>
+        <v>0.4076943240188392</v>
       </c>
       <c r="AM18" s="22">
-        <f t="shared" si="31"/>
-        <v>5.5846743136782694E-2</v>
+        <f>+AL18*(1+$AD$23)</f>
+        <v>0.2038471620094196</v>
       </c>
       <c r="AN18" s="22">
-        <f t="shared" si="31"/>
-        <v>2.7923371568391347E-2</v>
+        <f>+AM18*(1+$AD$23)</f>
+        <v>0.1019235810047098</v>
       </c>
       <c r="AO18" s="22">
-        <f t="shared" si="31"/>
-        <v>1.3961685784195673E-2</v>
+        <f>+AN18*(1+$AD$23)</f>
+        <v>5.0961790502354901E-2</v>
       </c>
       <c r="AP18" s="22">
-        <f t="shared" si="31"/>
-        <v>6.9808428920978367E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="2:42" x14ac:dyDescent="0.2">
+        <f>+AO18*(1+$AD$23)</f>
+        <v>2.548089525117745E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>30</v>
       </c>
       <c r="E19" s="5">
-        <f t="shared" ref="E19" si="32">+E18/E20</f>
+        <f t="shared" ref="E19" si="39">+E18/E20</f>
         <v>-1.2720736819143088</v>
       </c>
       <c r="F19" s="5">
@@ -2037,58 +2171,66 @@
       </c>
       <c r="I19" s="5">
         <f>+I18/I20</f>
-        <v>0.71362264763764849</v>
+        <v>-0.61192797617881378</v>
       </c>
       <c r="J19" s="5">
-        <f t="shared" ref="J19:N19" si="33">+J18/J20</f>
-        <v>-0.51669829493422736</v>
+        <f t="shared" ref="J19:N19" si="40">+J18/J20</f>
+        <v>-0.59959689226189627</v>
       </c>
       <c r="K19" s="5">
-        <f t="shared" si="33"/>
-        <v>1.0172918593983498</v>
+        <f t="shared" si="40"/>
+        <v>1.051411525900195</v>
       </c>
       <c r="L19" s="5">
-        <f t="shared" si="33"/>
-        <v>1.1691264652787006</v>
+        <f t="shared" si="40"/>
+        <v>1.2060308679443414</v>
       </c>
       <c r="M19" s="5">
-        <f t="shared" si="33"/>
-        <v>1.3209610711590514</v>
+        <f t="shared" si="40"/>
+        <v>1.3606502099884881</v>
       </c>
       <c r="N19" s="5">
-        <f t="shared" si="33"/>
-        <v>1.472795677039402</v>
+        <f t="shared" si="40"/>
+        <v>1.5152695520326342</v>
       </c>
       <c r="S19" s="1">
-        <f t="shared" ref="S19:Y19" si="34">+S18/S20</f>
-        <v>-1.579069559095742</v>
+        <f t="shared" ref="S19:Y19" si="41">+S18/S20</f>
+        <v>-3.0062886076912325</v>
       </c>
       <c r="T19" s="1">
-        <f t="shared" si="34"/>
-        <v>4.9801750728755039</v>
+        <f t="shared" si="41"/>
+        <v>5.133362155865659</v>
       </c>
       <c r="U19" s="1">
-        <f t="shared" si="34"/>
-        <v>6.7569467543787018</v>
+        <f t="shared" si="41"/>
+        <v>6.7230664973368146</v>
       </c>
       <c r="V19" s="1">
-        <f t="shared" si="34"/>
-        <v>9.5532673420092902</v>
+        <f t="shared" si="41"/>
+        <v>8.8253327843251661</v>
       </c>
       <c r="W19" s="1">
-        <f t="shared" si="34"/>
-        <v>13.413182044721816</v>
+        <f t="shared" si="41"/>
+        <v>11.496638682218146</v>
       </c>
       <c r="X19" s="1">
-        <f t="shared" si="34"/>
-        <v>18.722935557494601</v>
+        <f t="shared" si="41"/>
+        <v>14.326840118989539</v>
       </c>
       <c r="Y19" s="1">
-        <f t="shared" si="34"/>
-        <v>24.191296380006637</v>
-      </c>
-    </row>
-    <row r="20" spans="2:42" x14ac:dyDescent="0.2">
+        <f t="shared" si="41"/>
+        <v>17.070829138697473</v>
+      </c>
+      <c r="Z19" s="1">
+        <f t="shared" ref="Z19:AA19" si="42">+Z18/Z20</f>
+        <v>19.243922284582091</v>
+      </c>
+      <c r="AA19" s="1">
+        <f t="shared" si="42"/>
+        <v>21.652965154335782</v>
+      </c>
+    </row>
+    <row r="20" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>1</v>
       </c>
@@ -2105,224 +2247,568 @@
         <v>37.823233000000002</v>
       </c>
       <c r="I20" s="4">
-        <f>+H20</f>
-        <v>37.823233000000002</v>
+        <v>38.381968000000001</v>
       </c>
       <c r="J20" s="4">
-        <f>+I20</f>
-        <v>37.823233000000002</v>
+        <v>38.560907</v>
       </c>
       <c r="K20" s="4">
-        <f t="shared" ref="K20:N20" si="35">+J20</f>
-        <v>37.823233000000002</v>
+        <f t="shared" ref="K20:N20" si="43">+J20</f>
+        <v>38.560907</v>
       </c>
       <c r="L20" s="4">
-        <f t="shared" si="35"/>
-        <v>37.823233000000002</v>
+        <f t="shared" si="43"/>
+        <v>38.560907</v>
       </c>
       <c r="M20" s="4">
-        <f t="shared" si="35"/>
-        <v>37.823233000000002</v>
+        <f t="shared" si="43"/>
+        <v>38.560907</v>
       </c>
       <c r="N20" s="4">
-        <f t="shared" si="35"/>
-        <v>37.823233000000002</v>
+        <f t="shared" si="43"/>
+        <v>38.560907</v>
       </c>
       <c r="S20" s="22">
         <f>AVERAGE(G20:J20)</f>
-        <v>37.192588499999999</v>
+        <v>37.516690749999995</v>
       </c>
       <c r="T20" s="22">
         <f>AVERAGE(K20:N20)</f>
-        <v>37.823233000000002</v>
+        <v>38.560907</v>
       </c>
       <c r="U20" s="22">
         <f>+T20</f>
-        <v>37.823233000000002</v>
+        <v>38.560907</v>
       </c>
       <c r="V20" s="22">
-        <f t="shared" ref="V20:Y20" si="36">+U20</f>
-        <v>37.823233000000002</v>
+        <f t="shared" ref="V20:Y20" si="44">+U20</f>
+        <v>38.560907</v>
       </c>
       <c r="W20" s="22">
-        <f t="shared" si="36"/>
-        <v>37.823233000000002</v>
+        <f t="shared" si="44"/>
+        <v>38.560907</v>
       </c>
       <c r="X20" s="22">
-        <f t="shared" si="36"/>
-        <v>37.823233000000002</v>
+        <f t="shared" si="44"/>
+        <v>38.560907</v>
       </c>
       <c r="Y20" s="22">
-        <f t="shared" si="36"/>
-        <v>37.823233000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="2:42" x14ac:dyDescent="0.2">
+        <f t="shared" si="44"/>
+        <v>38.560907</v>
+      </c>
+      <c r="Z20" s="22">
+        <f t="shared" ref="Z20" si="45">+Y20</f>
+        <v>38.560907</v>
+      </c>
+      <c r="AA20" s="22">
+        <f t="shared" ref="AA20" si="46">+Z20</f>
+        <v>38.560907</v>
+      </c>
+    </row>
+    <row r="22" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="I22" s="20">
+        <f>+I8/E8-1</f>
+        <v>24.087591240875913</v>
+      </c>
+      <c r="J22" s="20">
+        <f>+J8/F8-1</f>
+        <v>4.0687022900763363</v>
+      </c>
+      <c r="K22" s="20">
+        <f>+K8/G8-1</f>
+        <v>1.81915969660567</v>
+      </c>
+      <c r="L22" s="20">
+        <f>+L8/H8-1</f>
+        <v>1.1886409736308319</v>
+      </c>
+      <c r="M22" s="20">
+        <f>+M8/I8-1</f>
+        <v>1.0937035534770128</v>
+      </c>
+      <c r="N22" s="20">
+        <f>+N8/J8-1</f>
+        <v>0.68965517241379271</v>
+      </c>
+    </row>
+    <row r="23" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E23" s="20">
         <f>+E10/E8</f>
         <v>0.80344108446298224</v>
       </c>
-      <c r="F22" s="20">
-        <f t="shared" ref="F22:N22" si="37">+F10/F8</f>
+      <c r="F23" s="20">
+        <f t="shared" ref="F23:N23" si="47">+F10/F8</f>
         <v>0.90717557251908398</v>
       </c>
-      <c r="G22" s="20">
-        <f t="shared" si="37"/>
+      <c r="G23" s="20">
+        <f t="shared" si="47"/>
         <v>0.94010284638226982</v>
       </c>
-      <c r="H22" s="20">
-        <f t="shared" si="37"/>
+      <c r="H23" s="20">
+        <f t="shared" si="47"/>
         <v>0.92637254901960786</v>
       </c>
-      <c r="I22" s="20">
-        <f t="shared" si="37"/>
+      <c r="I23" s="20">
+        <f t="shared" si="47"/>
+        <v>0.93262396608337839</v>
+      </c>
+      <c r="J23" s="20">
+        <f t="shared" si="47"/>
+        <v>0.9258132530120482</v>
+      </c>
+      <c r="K23" s="20">
+        <f t="shared" si="47"/>
         <v>0.93</v>
       </c>
-      <c r="J22" s="20">
-        <f t="shared" si="37"/>
-        <v>0.9258132530120482</v>
-      </c>
-      <c r="K22" s="20">
-        <f t="shared" si="37"/>
+      <c r="L23" s="20">
+        <f t="shared" si="47"/>
         <v>0.93</v>
       </c>
-      <c r="L22" s="20">
-        <f t="shared" si="37"/>
+      <c r="M23" s="20">
+        <f t="shared" si="47"/>
+        <v>0.93</v>
+      </c>
+      <c r="N23" s="20">
+        <f t="shared" si="47"/>
+        <v>0.93</v>
+      </c>
+      <c r="S23" s="20">
+        <f t="shared" ref="S23:AA23" si="48">+S10/S8</f>
+        <v>0.92988651520783683</v>
+      </c>
+      <c r="T23" s="20">
+        <f t="shared" si="48"/>
+        <v>0.93</v>
+      </c>
+      <c r="U23" s="20">
+        <f t="shared" si="48"/>
+        <v>0.93</v>
+      </c>
+      <c r="V23" s="20">
+        <f t="shared" si="48"/>
+        <v>0.93000000000000016</v>
+      </c>
+      <c r="W23" s="20">
+        <f t="shared" si="48"/>
         <v>0.92999999999999994</v>
       </c>
-      <c r="M22" s="20">
-        <f t="shared" si="37"/>
+      <c r="X23" s="20">
+        <f t="shared" si="48"/>
         <v>0.93</v>
       </c>
-      <c r="N22" s="20">
-        <f t="shared" si="37"/>
+      <c r="Y23" s="20">
+        <f t="shared" si="48"/>
+        <v>0.93000000000000016</v>
+      </c>
+      <c r="Z23" s="20">
+        <f t="shared" si="48"/>
         <v>0.93</v>
       </c>
-      <c r="S22" s="20">
-        <f t="shared" ref="S22:Y22" si="38">+S10/S8</f>
-        <v>0.92921228466033512</v>
-      </c>
-      <c r="T22" s="20">
-        <f t="shared" si="38"/>
+      <c r="AA23" s="20">
+        <f t="shared" si="48"/>
         <v>0.93</v>
       </c>
-      <c r="U22" s="20">
-        <f t="shared" si="38"/>
-        <v>0.93</v>
-      </c>
-      <c r="V22" s="20">
-        <f t="shared" si="38"/>
-        <v>0.93</v>
-      </c>
-      <c r="W22" s="20">
-        <f t="shared" si="38"/>
-        <v>0.93</v>
-      </c>
-      <c r="X22" s="20">
-        <f t="shared" si="38"/>
-        <v>0.93</v>
-      </c>
-      <c r="Y22" s="20">
-        <f t="shared" si="38"/>
-        <v>0.92999999999999994</v>
-      </c>
-      <c r="AA22" t="s">
+      <c r="AC23" t="s">
         <v>55</v>
       </c>
-      <c r="AB22" s="24">
+      <c r="AD23" s="24">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="23" spans="2:42" x14ac:dyDescent="0.2">
-      <c r="AA23" t="s">
+    <row r="24" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="AC24" t="s">
         <v>56</v>
       </c>
-      <c r="AB23" s="24">
+      <c r="AD24" s="24">
         <v>0.08</v>
       </c>
     </row>
-    <row r="24" spans="2:42" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
+    <row r="25" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>3</v>
       </c>
-      <c r="H24" s="3">
-        <f>299-30</f>
-        <v>269</v>
-      </c>
-      <c r="I24" s="19">
-        <f>+H24+I18</f>
-        <v>295.99151567567566</v>
-      </c>
-      <c r="J24" s="19">
-        <f t="shared" ref="J24:N24" si="39">+I24+J18</f>
-        <v>276.44831567567564</v>
-      </c>
-      <c r="K24" s="19">
-        <f t="shared" si="39"/>
-        <v>314.92558270270268</v>
-      </c>
-      <c r="L24" s="19">
-        <f t="shared" si="39"/>
-        <v>359.14572540540541</v>
-      </c>
-      <c r="M24" s="19">
-        <f t="shared" si="39"/>
-        <v>409.10874378378378</v>
-      </c>
-      <c r="N24" s="19">
-        <f t="shared" si="39"/>
-        <v>464.81463783783784</v>
-      </c>
-      <c r="T24" s="2">
-        <f>+N24</f>
-        <v>464.81463783783784</v>
-      </c>
-      <c r="U24" s="2">
-        <f>+T24+U18</f>
-        <v>720.38420929729728</v>
-      </c>
-      <c r="V24" s="2">
-        <f t="shared" ref="V24:Y24" si="40">+U24+V18</f>
-        <v>1081.7196658854054</v>
-      </c>
-      <c r="W24" s="2">
-        <f t="shared" si="40"/>
-        <v>1589.0495756343353</v>
-      </c>
-      <c r="X24" s="2">
-        <f t="shared" si="40"/>
-        <v>2297.2115296694383</v>
-      </c>
-      <c r="Y24" s="2">
-        <f t="shared" si="40"/>
-        <v>3212.204569222486</v>
-      </c>
-      <c r="AA24" t="s">
+      <c r="H25" s="19">
+        <f>181.095+142.485+3</f>
+        <v>326.58000000000004</v>
+      </c>
+      <c r="I25" s="19">
+        <f>176.21+140.742+3</f>
+        <v>319.952</v>
+      </c>
+      <c r="J25" s="19">
+        <f>94.819+196.557+2.562+3</f>
+        <v>296.93799999999999</v>
+      </c>
+      <c r="K25" s="19">
+        <f t="shared" ref="J25:N25" si="49">+J25+K18</f>
+        <v>337.4813820689655</v>
+      </c>
+      <c r="L25" s="19">
+        <f t="shared" si="49"/>
+        <v>383.98702620689653</v>
+      </c>
+      <c r="M25" s="19">
+        <f t="shared" si="49"/>
+        <v>436.45493241379307</v>
+      </c>
+      <c r="N25" s="19">
+        <f t="shared" si="49"/>
+        <v>494.88510068965513</v>
+      </c>
+      <c r="T25" s="2">
+        <f>+N25</f>
+        <v>494.88510068965513</v>
+      </c>
+      <c r="U25" s="2">
+        <f>+T25+U18</f>
+        <v>754.13264264827581</v>
+      </c>
+      <c r="V25" s="2">
+        <f t="shared" ref="V25:AA25" si="50">+U25+V18</f>
+        <v>1094.4454793886896</v>
+      </c>
+      <c r="W25" s="2">
+        <f t="shared" si="50"/>
+        <v>1537.7662944263061</v>
+      </c>
+      <c r="X25" s="2">
+        <f t="shared" si="50"/>
+        <v>2090.2222438585304</v>
+      </c>
+      <c r="Y25" s="2">
+        <f t="shared" si="50"/>
+        <v>2748.4888986887336</v>
+      </c>
+      <c r="Z25" s="2">
+        <f t="shared" si="50"/>
+        <v>3490.5519962197313</v>
+      </c>
+      <c r="AA25" s="2">
+        <f t="shared" si="50"/>
+        <v>4325.5099718103138</v>
+      </c>
+      <c r="AC25" t="s">
         <v>63</v>
       </c>
-      <c r="AB24" s="24">
+      <c r="AD25" s="24">
         <v>0.05</v>
       </c>
     </row>
-    <row r="25" spans="2:42" x14ac:dyDescent="0.2">
-      <c r="AA25" t="s">
+    <row r="26" spans="2:42" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19">
+        <v>29.529</v>
+      </c>
+      <c r="I26" s="19">
+        <v>29.158999999999999</v>
+      </c>
+      <c r="J26" s="19">
+        <v>46.76</v>
+      </c>
+      <c r="AC26" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AB25" s="2">
-        <f>NPV(AB23,T18:AP18)+Main!J5-Main!J6</f>
-        <v>2877.4889388128513</v>
-      </c>
-    </row>
-    <row r="26" spans="2:42" x14ac:dyDescent="0.2">
-      <c r="AA26" t="s">
+      <c r="AD26" s="2">
+        <f>NPV(AD24,T18:AP18)+Main!J5-Main!J6</f>
+        <v>3284.8851952613541</v>
+      </c>
+    </row>
+    <row r="27" spans="2:42" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19">
+        <f>2.195+2.533</f>
+        <v>4.7279999999999998</v>
+      </c>
+      <c r="I27" s="19">
+        <f>2.846+2.533</f>
+        <v>5.3789999999999996</v>
+      </c>
+      <c r="J27" s="19">
+        <f>2.62+2.533</f>
+        <v>5.1530000000000005</v>
+      </c>
+      <c r="AC27" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AB26" s="1">
-        <f>AB25/Main!J3</f>
-        <v>76.160931666372164</v>
+      <c r="AD27" s="1">
+        <f>AD26/Main!J3</f>
+        <v>85.594756218431542</v>
+      </c>
+    </row>
+    <row r="28" spans="2:42" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19">
+        <v>1.3120000000000001</v>
+      </c>
+      <c r="I28" s="19">
+        <v>1.145</v>
+      </c>
+      <c r="J28" s="19">
+        <v>1.2989999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="2:42" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19">
+        <v>5.9720000000000004</v>
+      </c>
+      <c r="I29" s="19">
+        <v>7.0149999999999997</v>
+      </c>
+      <c r="J29" s="19">
+        <v>14.65</v>
+      </c>
+    </row>
+    <row r="30" spans="2:42" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19">
+        <v>2.2410000000000001</v>
+      </c>
+      <c r="I30" s="19">
+        <v>2.3929999999999998</v>
+      </c>
+      <c r="J30" s="19">
+        <v>2.3140000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="2:42" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19">
+        <v>3.6669999999999998</v>
+      </c>
+      <c r="I31" s="19">
+        <v>8.5670000000000002</v>
+      </c>
+      <c r="J31" s="19">
+        <v>8.3260000000000005</v>
+      </c>
+    </row>
+    <row r="32" spans="2:42" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19">
+        <v>1.9690000000000001</v>
+      </c>
+      <c r="I32" s="19">
+        <v>1.802</v>
+      </c>
+      <c r="J32" s="19">
+        <v>0.55200000000000005</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="I33" s="19">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="J33" s="19">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19">
+        <f>SUM(H25:H33)</f>
+        <v>376.84399999999999</v>
+      </c>
+      <c r="I34" s="19">
+        <f>SUM(I25:I33)</f>
+        <v>376.29999999999995</v>
+      </c>
+      <c r="J34" s="19">
+        <f>SUM(J25:J33)</f>
+        <v>376.99100000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H35" s="19"/>
+    </row>
+    <row r="36" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19">
+        <v>43.526000000000003</v>
+      </c>
+      <c r="I36" s="19">
+        <v>54.542999999999999</v>
+      </c>
+      <c r="J36" s="19">
+        <v>64.789000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19">
+        <v>8.0449999999999999</v>
+      </c>
+      <c r="I37" s="19">
+        <v>11.324999999999999</v>
+      </c>
+      <c r="J37" s="19">
+        <v>15.823</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19">
+        <v>71.578000000000003</v>
+      </c>
+      <c r="I38" s="19">
+        <v>71.707999999999998</v>
+      </c>
+      <c r="J38" s="19">
+        <v>71.844999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19">
+        <v>1.4490000000000001</v>
+      </c>
+      <c r="I39" s="19">
+        <v>1.24</v>
+      </c>
+      <c r="J39" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19">
+        <v>252.24600000000001</v>
+      </c>
+      <c r="I40" s="19">
+        <v>237.48400000000001</v>
+      </c>
+      <c r="J40" s="19">
+        <v>224.53399999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19">
+        <f>SUM(H36:H40)</f>
+        <v>376.84399999999999</v>
+      </c>
+      <c r="I41" s="19">
+        <f>SUM(I36:I40)</f>
+        <v>376.3</v>
+      </c>
+      <c r="J41" s="19">
+        <f>SUM(J36:J40)</f>
+        <v>376.99099999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2336,24 +2822,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C675D65F-7F40-4576-99AF-8C5DC611D955}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>31</v>
       </c>
@@ -2361,7 +2847,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>41</v>
       </c>
@@ -2369,7 +2855,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>36</v>
       </c>
@@ -2377,7 +2863,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>45</v>
       </c>
@@ -2385,42 +2871,53 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" s="15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" s="15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" s="15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{BE055B9E-CE42-42CA-9B41-B7CB6156D9D3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>